--- a/outputs/ML_Results/mode_MNLR_new/Dijon.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ26645923" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ32376448" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ38171838" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43837209" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49553509" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ55606396" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02001594" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07519089" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ13103943" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ09126203" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13853088" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18762631" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ24169392" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29549402" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34995805" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ40520713" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45678059" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ50791938" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,22 +486,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-14.74311732460158</v>
+        <v>-10.1091094369081</v>
       </c>
       <c r="C2" t="n">
-        <v>1.662024517362185</v>
+        <v>2.490593037077136</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.869577875927011</v>
+        <v>-2.167175426784492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9983292743981443</v>
+        <v>0.9870689273264486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1392586652186558</v>
+        <v>0.04337579857206962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09648940675163954</v>
+        <v>0.07985156845981971</v>
       </c>
     </row>
     <row r="3">
@@ -511,22 +511,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.52070512152653</v>
+        <v>0.5201457318589486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3824688897571221</v>
+        <v>0.3899460639827308</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4191132456812749</v>
+        <v>-0.4166156120478993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09779276763804327</v>
+        <v>0.09807087989615432</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006855909578977773</v>
+        <v>0.005910736635795378</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01275907412988453</v>
+        <v>0.01325484328220432</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5832022429747034</v>
+        <v>-0.5864148841017088</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6836808796519906</v>
+        <v>-0.6732751184640182</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.206166924264492</v>
+        <v>-1.212804466011187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3066221963732435</v>
+        <v>0.3040920515421536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005431062059351856</v>
+        <v>0.006234771968989222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00112130353046609</v>
+        <v>0.001057317964917743</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3263662554437557</v>
+        <v>0.3263630323293714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32995685479482</v>
+        <v>0.3301624053860402</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1064488304063931</v>
+        <v>-0.1033222425186226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3076150532331781</v>
+        <v>0.3076893769902088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03408639201947369</v>
+        <v>0.03413498129298482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.538311938355523</v>
+        <v>0.5505062515743303</v>
       </c>
     </row>
     <row r="6">
@@ -586,22 +586,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2093788205010013</v>
+        <v>-0.2040298017103417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1587928136894111</v>
+        <v>0.1636193227633909</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.227795928375492</v>
+        <v>-1.228274854665808</v>
       </c>
       <c r="E6" t="n">
-        <v>0.789058502668558</v>
+        <v>0.7943484933095548</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7418938933801125</v>
+        <v>0.7348373257749002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03940320290027975</v>
+        <v>0.03944307528196152</v>
       </c>
     </row>
     <row r="7">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04987253972969648</v>
+        <v>0.052142904223152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1635384688872629</v>
+        <v>0.1623099099272686</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5677846635645668</v>
+        <v>-0.5683893020141242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9033139310913579</v>
+        <v>0.8989398956892924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2982337008426896</v>
+        <v>0.3021525511324318</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007178648294326674</v>
+        <v>0.007124779807392153</v>
       </c>
     </row>
     <row r="8">
@@ -636,22 +636,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.833964593848183</v>
+        <v>-1.844466371950079</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5270785481145448</v>
+        <v>-0.5622459287322785</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02126887556617112</v>
+        <v>-0.01717256964264714</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0172524798241644</v>
+        <v>0.01656206139565953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635296360998808</v>
+        <v>0.1384575860270255</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9615300632246662</v>
+        <v>0.9689311595095618</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.001744591599412</v>
+        <v>-1.005835188583421</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2994332337014402</v>
+        <v>-0.3298898752727893</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1111589084678126</v>
+        <v>-0.1051436573757649</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1435053343132899</v>
+        <v>0.1416209329601283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4087682613256856</v>
+        <v>0.3640101219415196</v>
       </c>
       <c r="G9" t="n">
-        <v>0.792827978343685</v>
+        <v>0.80382024852107</v>
       </c>
     </row>
     <row r="10">
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.14153189677145</v>
+        <v>2.139314963852987</v>
       </c>
       <c r="C10" t="n">
-        <v>1.840935787036377</v>
+        <v>1.836129822558318</v>
       </c>
       <c r="D10" t="n">
-        <v>2.031138008395312</v>
+        <v>2.026286987190637</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002473403064947941</v>
+        <v>0.0002500915240437798</v>
       </c>
       <c r="F10" t="n">
-        <v>6.274344462861862e-26</v>
+        <v>8.907036220765019e-26</v>
       </c>
       <c r="G10" t="n">
-        <v>2.252507477838854e-09</v>
+        <v>2.431289942021866e-09</v>
       </c>
     </row>
     <row r="11">
@@ -711,22 +711,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.477476447570269</v>
+        <v>2.46902277744415</v>
       </c>
       <c r="C11" t="n">
-        <v>2.014197455950088</v>
+        <v>2.028664943651871</v>
       </c>
       <c r="D11" t="n">
-        <v>2.745001048576781</v>
+        <v>2.734822091373077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0008183352776725068</v>
+        <v>0.0008636909467338179</v>
       </c>
       <c r="F11" t="n">
-        <v>6.26846693025586e-13</v>
+        <v>4.616809007310391e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>4.60467622320714e-11</v>
+        <v>5.519941471522533e-11</v>
       </c>
     </row>
     <row r="12">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7444140812833122</v>
+        <v>0.7406063188480999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.908256750002834</v>
+        <v>0.9053942735814248</v>
       </c>
       <c r="D12" t="n">
-        <v>1.515217558980157</v>
+        <v>1.50939681611019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2754806977467665</v>
+        <v>0.2779328360140972</v>
       </c>
       <c r="F12" t="n">
-        <v>4.226310527965193e-07</v>
+        <v>4.713009416251057e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>1.351581028529623e-05</v>
+        <v>1.459636326422066e-05</v>
       </c>
     </row>
     <row r="13">
@@ -761,22 +761,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.473805058598147</v>
+        <v>2.474043056931424</v>
       </c>
       <c r="C13" t="n">
-        <v>1.134542618853929</v>
+        <v>1.128269683950638</v>
       </c>
       <c r="D13" t="n">
-        <v>2.110291496652632</v>
+        <v>2.104720847421945</v>
       </c>
       <c r="E13" t="n">
-        <v>2.038892328488336e-05</v>
+        <v>2.038168978595966e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>2.859716181380531e-08</v>
+        <v>3.424161019095738e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>8.0404630319343e-10</v>
+        <v>8.772481605910418e-10</v>
       </c>
     </row>
     <row r="14">
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.175107693690802</v>
+        <v>1.171234765050444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9097772687685083</v>
+        <v>0.9011608371480334</v>
       </c>
       <c r="D14" t="n">
-        <v>2.481665912545334</v>
+        <v>2.477203092714944</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1438848718859386</v>
+        <v>0.1452150092435076</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00185416976749655</v>
+        <v>0.002037971701979626</v>
       </c>
       <c r="G14" t="n">
-        <v>4.32411819617463e-11</v>
+        <v>4.669338615119122e-11</v>
       </c>
     </row>
     <row r="15">
@@ -811,22 +811,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3408152156741436</v>
+        <v>0.3390846418182127</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1092244641881842</v>
+        <v>-0.09445944435853942</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2460488497419658</v>
+        <v>0.2444343663280347</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3551235839426977</v>
+        <v>0.3579555918055844</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6085845398452816</v>
+        <v>0.6583934701463008</v>
       </c>
       <c r="G15" t="n">
-        <v>0.273424303898778</v>
+        <v>0.2763317345531165</v>
       </c>
     </row>
     <row r="16">
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3277472909872198</v>
+        <v>-0.3237997675737182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3057553949480094</v>
+        <v>0.3348590894985011</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0544096181536191</v>
+        <v>-0.05598136992884938</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7661079369236097</v>
+        <v>0.7688431383307203</v>
       </c>
       <c r="F16" t="n">
-        <v>0.265139570412352</v>
+        <v>0.2238880125240533</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9120635226025984</v>
+        <v>0.9094293980215754</v>
       </c>
     </row>
     <row r="17">
@@ -861,22 +861,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-46.65758460942896</v>
+        <v>-50.09248686273152</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4195771953044116</v>
+        <v>-0.3949343870136548</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5951314224699945</v>
+        <v>-0.5668783685179333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999967595521</v>
+        <v>0.9999999993901617</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3650730586757672</v>
+        <v>0.3964025922827327</v>
       </c>
       <c r="G17" t="n">
-        <v>0.316901501880975</v>
+        <v>0.3416257525734774</v>
       </c>
     </row>
     <row r="18">
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.234752961920989</v>
+        <v>-1.22716293413957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5714086033503079</v>
+        <v>0.5730532719178372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1756771307416842</v>
+        <v>0.1771327904145756</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02924383505576244</v>
+        <v>0.03048819779433934</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009800670198630932</v>
+        <v>0.009625451642795924</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5154307935231586</v>
+        <v>0.512112031899707</v>
       </c>
     </row>
     <row r="19">
@@ -911,22 +911,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.711060980845778</v>
+        <v>0.7158091072249061</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0271393398443685</v>
+        <v>0.01961569455162896</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7002792539880676</v>
+        <v>0.7081037149886287</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2321262234082081</v>
+        <v>0.229608951060718</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9320865080743803</v>
+        <v>0.950895235023644</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04180825616167137</v>
+        <v>0.03965992690313704</v>
       </c>
     </row>
     <row r="20">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.020336999788019</v>
+        <v>1.012440684720306</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6912768897735765</v>
+        <v>0.6831227554016327</v>
       </c>
       <c r="D20" t="n">
-        <v>1.232312115874476</v>
+        <v>1.238670797965291</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2173164547500707</v>
+        <v>0.220403553579999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08971037603077137</v>
+        <v>0.09331607874564735</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003833850876996348</v>
+        <v>0.003627464571099816</v>
       </c>
     </row>
     <row r="21">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.615074500903026</v>
+        <v>1.625852925468141</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5035421636598014</v>
+        <v>0.4999906469740864</v>
       </c>
       <c r="D21" t="n">
-        <v>1.137171317127484</v>
+        <v>1.154017506021946</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07985991381177777</v>
+        <v>0.07833694353768529</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4723053485315788</v>
+        <v>0.4749476830260034</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03057804619342492</v>
+        <v>0.02842290636625647</v>
       </c>
     </row>
     <row r="22">
@@ -986,22 +986,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3485295416907561</v>
+        <v>0.3525667876483577</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4786522096847697</v>
+        <v>0.4550170061285694</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4150074555796733</v>
+        <v>0.4136036509914035</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4927828114229363</v>
+        <v>0.4880887812173514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03248503453096076</v>
+        <v>0.04258442373752234</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1338945526692261</v>
+        <v>0.1356706649037356</v>
       </c>
     </row>
     <row r="23">
@@ -1011,22 +1011,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.8920461924833</v>
+        <v>11.0448296721967</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3183667253152635</v>
+        <v>-0.2928546954534094</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04533534712009235</v>
+        <v>-0.02702379139328707</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981990751613983</v>
+        <v>0.9858720232408698</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7004461052740386</v>
+        <v>0.7249312847533009</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9508797851514704</v>
+        <v>0.9707202527512754</v>
       </c>
     </row>
     <row r="24">
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.59019212343778</v>
+        <v>8.743164702545732</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.083875239351005</v>
+        <v>-2.070132102199449</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.565560418335777</v>
+        <v>-2.553155848754704</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9984599264468559</v>
+        <v>0.9888159817098827</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01618028069746633</v>
+        <v>0.0174627921074192</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001349196654043051</v>
+        <v>0.001428591938591173</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.73610010289137</v>
+        <v>13.88614472563278</v>
       </c>
       <c r="C25" t="n">
-        <v>2.461147231772421</v>
+        <v>2.483175738085619</v>
       </c>
       <c r="D25" t="n">
-        <v>1.979827558068434</v>
+        <v>2.015180723252074</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978767808679133</v>
+        <v>0.982238122374622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02732587075938229</v>
+        <v>0.02640417073791905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03535524150692644</v>
+        <v>0.03253408928538079</v>
       </c>
     </row>
     <row r="26">
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.18831210106174</v>
+        <v>11.33252789095293</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01085859009061822</v>
+        <v>0.03316289684592066</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03291277145127575</v>
+        <v>-0.01732665249748253</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9981655016492614</v>
+        <v>0.9855040479565748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9891469061846242</v>
+        <v>0.9670639444432457</v>
       </c>
       <c r="G26" t="n">
-        <v>0.962124217568215</v>
+        <v>0.9800690680062463</v>
       </c>
     </row>
     <row r="27">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.29414995079972</v>
+        <v>11.43932508484689</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2940563208732177</v>
+        <v>-0.2616925540343251</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01318646334199474</v>
+        <v>0.0008253047680694038</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9981535078716969</v>
+        <v>0.9853674541380418</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7137527992438464</v>
+        <v>0.7456204805375435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9849100306825602</v>
+        <v>0.9990561416946151</v>
       </c>
     </row>
     <row r="28">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.5826147544243436</v>
+        <v>-0.5789226106795662</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2326532290144774</v>
+        <v>0.2290697726212313</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5158609093958527</v>
+        <v>0.5175695013621705</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01003316851786311</v>
+        <v>0.01060741604420648</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02155556745235758</v>
+        <v>0.02380457162268826</v>
       </c>
       <c r="G28" t="n">
-        <v>7.416685313213901e-06</v>
+        <v>7.058049697935721e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1161,22 +1161,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007537262666505191</v>
+        <v>0.007351556454032344</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006143124060374923</v>
+        <v>-0.006330047397012014</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.000113722605331872</v>
+        <v>-0.0001983046878314666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4782795988403907</v>
+        <v>0.4893523240712135</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2622636216308354</v>
+        <v>0.2481224970918776</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9844492211351229</v>
+        <v>0.9729012376652966</v>
       </c>
     </row>
     <row r="30">
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002659878784693799</v>
+        <v>-0.0002658604613101415</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001900307447742674</v>
+        <v>-0.001906527607891972</v>
       </c>
       <c r="D30" t="n">
-        <v>1.000465176751562e-05</v>
+        <v>1.022383303492023e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>1.518312652399422e-06</v>
+        <v>1.656129121676139e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>6.030971028949233e-163</v>
+        <v>5.512868011439233e-163</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5515620555056748</v>
+        <v>0.543030224569756</v>
       </c>
     </row>
     <row r="31">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.32156871980623</v>
+        <v>-2.314055657720495</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.627820981349041</v>
+        <v>-2.614354139577917</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.230205537874008</v>
+        <v>-3.226638943506062</v>
       </c>
       <c r="E31" t="n">
-        <v>5.957337448265292e-12</v>
+        <v>7.135175033246335e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>2.063447603338989e-35</v>
+        <v>6.191668252203219e-35</v>
       </c>
       <c r="G31" t="n">
-        <v>1.677476946159676e-65</v>
+        <v>2.36655651388155e-65</v>
       </c>
     </row>
     <row r="32">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1631920100613442</v>
+        <v>0.1644090305798822</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06595445358953794</v>
+        <v>0.06118848512549251</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08806128385228207</v>
+        <v>0.08743191706899993</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05399946849144228</v>
+        <v>0.0528455331636143</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1432802322118576</v>
+        <v>0.1746097346874222</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07058358726425498</v>
+        <v>0.07262037073715535</v>
       </c>
     </row>
     <row r="33">
@@ -1261,22 +1261,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-7.617578574846125e-05</v>
+        <v>-0.008105574881483999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002375258663446602</v>
+        <v>0.02426396421826687</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001544055317544175</v>
+        <v>0.01614941345617937</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5745425683311101</v>
+        <v>0.5479967765786977</v>
       </c>
       <c r="F33" t="n">
-        <v>6.77332321779458e-05</v>
+        <v>4.450525707086385e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02201908470777793</v>
+        <v>0.01559237805855818</v>
       </c>
     </row>
     <row r="34">
@@ -1286,22 +1286,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.2463267152841283</v>
+        <v>-0.2425406952229045</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.05049319793150094</v>
+        <v>-0.05278040690741659</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0859039593730114</v>
+        <v>0.09755767035762339</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09240890685429855</v>
+        <v>0.09958290353397449</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3890465849636175</v>
+        <v>0.3696181698038242</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2008056205041984</v>
+        <v>0.1481062639397842</v>
       </c>
     </row>
     <row r="35">
@@ -1311,22 +1311,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1659078909805849</v>
+        <v>-0.1549980096723868</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06387504816627371</v>
+        <v>0.02362901979269598</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1234358765245699</v>
+        <v>-0.1191158933798776</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1367273366350296</v>
+        <v>0.229520692343092</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1115553994214867</v>
+        <v>0.5995729880458929</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01094930638371229</v>
+        <v>0.0234800556638844</v>
       </c>
     </row>
     <row r="36">
@@ -1336,147 +1336,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.106004266491144e-07</v>
+        <v>0.1147343766484274</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.692810853835831e-07</v>
+        <v>-0.1552734809499292</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.50561404970045e-08</v>
+        <v>-0.02974740374984566</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4078861043423991</v>
+        <v>0.393437120433181</v>
       </c>
       <c r="F36" t="n">
-        <v>0.006627281481156971</v>
+        <v>0.01378827272750743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6211325076848937</v>
+        <v>0.6776856085059779</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01127580745326912</v>
+        <v>0.001338163257557074</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01552054904472303</v>
+        <v>-0.007808582682445719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00191824310962332</v>
+        <v>0.003112314716129438</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4110593071658286</v>
+        <v>0.910706495490576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002565571544043294</v>
+        <v>0.1222550278025108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7155628797147151</v>
+        <v>0.5833800461838743</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.38953549495294</v>
+        <v>-0.01017511970308112</v>
       </c>
       <c r="C38" t="n">
-        <v>2.622159675859579</v>
+        <v>0.01169347507421872</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.9079280527074789</v>
+        <v>0.00308178910544656</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002751553032525316</v>
+        <v>0.5218647487366335</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1447274616127776</v>
+        <v>0.03851747017661857</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6673740751692704</v>
+        <v>0.594549312826991</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.08241969120384283</v>
+        <v>0.1240239584205738</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.037320772419254</v>
+        <v>0.02814854781299694</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.912413753859164</v>
+        <v>-0.009088253845553174</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9368858121410505</v>
+        <v>0.00299600323266802</v>
       </c>
       <c r="F39" t="n">
-        <v>1.022133218433741e-05</v>
+        <v>0.1202754418935179</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08349906824290328</v>
+        <v>0.6691907830977553</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.788211830442456</v>
+        <v>-0.001113170683838039</v>
       </c>
       <c r="C40" t="n">
-        <v>1.602249241029474</v>
+        <v>-0.01751532490539134</v>
       </c>
       <c r="D40" t="n">
-        <v>1.206985811611536</v>
+        <v>-0.009814404504493288</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09205490986335496</v>
+        <v>0.9227400760436565</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02912219343448431</v>
+        <v>0.0004542397559478312</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1462249692626321</v>
+        <v>0.08790622180961236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.02855799279093923</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01806858511894326</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01172331728135178</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0878177114839719</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01455800857793099</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1633607002157703</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>-0.000328955057522683</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0003376472506410502</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-8.539014519501674e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3881157089299427</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0476691647933887</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.6610931743241546</v>
+      <c r="B42" t="n">
+        <v>-0.01962738568334125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01920302117378945</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.009778865228953498</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4125666626006308</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.06772367166863834</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4196185670141501</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,7 +2018,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2006,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2019,7 +2044,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2032,7 +2057,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2045,7 +2070,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2054,6 +2079,19 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2066,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2117,12 +2155,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-17.46113921680595</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.746668727834802</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.997050656143094</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9982977188238145</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02158531933103129</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02105598330548995</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2130,12 +2180,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.519292436832129</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4539879886974728</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.4222986838225085</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.09900364169784204</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001383575278070843</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01423954343866697</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2143,12 +2205,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-0.5542395655041622</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6347470198249572</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.440122088594054</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3110489460599009</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01036729920041972</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0002038733329145638</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2156,12 +2230,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.04407657633157061</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3596254176014366</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1287548758360581</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9021083491530275</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02417860728187073</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4694177928123371</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2169,12 +2255,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-0.05719597062123702</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.04558300534464465</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.584401569487628</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9419661719234224</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9192341472937212</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01429784603923737</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2182,12 +2280,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-0.05688519090717788</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1563951250997867</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.708190128125205</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8945239361337342</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.318145829812142</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001333495193318735</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2195,12 +2305,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-1.406574962013303</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.4452025516471679</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2048594971371569</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0643802088417416</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2093374205086642</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6487727243271849</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2208,12 +2330,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-0.5965829810621734</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1391731047386328</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.124137719050789</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3745441394571942</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6801199969819461</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7732260223490367</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2221,12 +2355,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.559608869734946</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.654619002287246</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.023938776576049</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.553692302567643e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.11180914995737e-21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.381076349894104e-09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2234,12 +2380,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>3.079892291502389</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.066057928482972</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.7705638437075</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0001277132755674385</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.643507325837542e-13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.674468936774286e-11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2247,12 +2405,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.311508366509941</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7138539986272021</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.555731061645015</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07009260697099561</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.864412999188284e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.451150136618045e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2260,12 +2430,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2.825273324424973</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.097235242086056</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.977111923486605</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.911071241347545e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.094681871315194e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.688306622461033e-08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2273,12 +2455,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.577615587008364</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8960672895268996</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.360622194558092</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.06536073688093874</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.002073484184594786</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.85824691542909e-09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2286,12 +2480,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.03893776899238188</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.2170166905884307</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01114907338340727</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9226786228709365</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.305688344838703</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9624319049922947</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2299,12 +2505,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0.4584928644727848</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.557304709065489</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.1328708071299002</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5832144137243628</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04568666374844593</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7874593157699941</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2312,12 +2530,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-19.80673420947652</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.4235872198657598</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.036734726806119</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9992597281635702</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3683744186606385</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1535094828621771</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2325,12 +2555,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>-1.092481797742269</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6242693604035717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.03198744634606129</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05507076435852663</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.005466022958937557</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9083950677977418</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2338,12 +2580,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.4713293500084467</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1714857191306554</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8067603940466541</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4481758524340019</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5910105141986085</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01936595854815331</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2351,12 +2605,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0.9764043562716819</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7913100699347057</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.429701048760557</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2316861916873101</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05548425799204975</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0007037458935136249</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2364,12 +2630,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1.376260743105496</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.795642568007857</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.137429676035011</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1340461843532144</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2268358039098175</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02786632492511178</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2377,12 +2655,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.3897061127318637</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.522598823011358</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1243950675006492</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4487835073977315</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01778713523924277</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6689018878343778</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2390,12 +2680,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>16.6620457883599</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2552457725017209</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1501419385615763</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9983756220281153</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7444121067601557</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8534279187730986</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2403,12 +2705,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>14.03917968812568</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.845347647243345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.63666124854146</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9986313242061446</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02518174645777626</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.002664118874714003</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2416,12 +2730,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>19.62857804621215</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.391771522578616</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.854475091228612</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.998086416194917</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00261380159526678</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.007382574175819212</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2429,12 +2755,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>16.61657842510642</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4868822460267109</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2455336166452124</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.998380054618071</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5152999627171979</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7514025040904946</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2442,12 +2780,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>16.94044724407921</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2758730255548718</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2359022195567325</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9983484807860299</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7138895113745456</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7617451303921521</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2455,12 +2805,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-0.5201807112169095</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1274176609776552</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.525606746877276</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02466848094293124</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.210876814546535</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.549533720195526e-06</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2468,12 +2830,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.001611364273469474</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.006452432544722515</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.002468148413201551</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8811834042305312</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2425589182601996</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6834897866193923</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2481,12 +2855,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>-0.0003042606061599179</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001974338534586322</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.303545775465151e-06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.323372904968384e-07</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.897598085245138e-166</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6340540264614429</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2494,12 +2880,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>-1.966606679269449</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.538973717109873</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.147143112600497</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.891149756525762e-08</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.46616924410058e-33</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.575849399462089e-61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2507,12 +2905,24 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.1442241803845919</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05127934568488247</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.06259141700480045</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1013835654350003</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2542300455681205</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2143731050114469</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2520,12 +2930,24 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0.001455524701219169</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02244913115934024</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02224073722272752</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9144261027861755</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0002267994079688036</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001373773774791716</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2533,12 +2955,24 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>-0.1706567990221895</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.06109147655728141</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1065839816908664</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2619260101151967</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2960530564441961</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1255267141401798</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2546,12 +2980,24 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>-0.1427734697144828</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.02325339609921248</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.1183073233518447</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2726703914367892</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6156456443383802</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02932642915146218</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2559,77 +3005,174 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0.03846277862365321</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.1430911445051823</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.09648602609614602</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7847575881156195</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02598911255633317</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1960277955879132</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.008095699124213349</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.01381016791593517</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0008787651904966494</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5003590624432537</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.007111817158215274</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8821990977996443</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.003466507756212099</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.009550200884182253</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.006177407201672792</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8195753939814434</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1016222922134909</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2896266328063184</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1522848826024271</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02746256422082755</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.001861660294425559</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0003812513164086009</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1315405744501841</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9322609728761544</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.001990109029263303</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.01561211774310499</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.01353852646109388</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8670138243079263</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.001869476506741321</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02353059863079518</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.02791327996638783</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01667617535878425</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01978979586678364</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1031899109287893</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02644398328645016</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02008173573883214</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>-0.0411110134864893</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02474547323899512</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.008546814449412092</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1459549928589641</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02370053162453429</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.49274281267544</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2642,7 +3185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2694,22 +3237,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-11.35556083323375</v>
+        <v>-13.79495155480094</v>
       </c>
       <c r="C2" t="n">
-        <v>2.093773477949155</v>
+        <v>3.051732201789279</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.833479651913478</v>
+        <v>-1.839671199990019</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9913755916434246</v>
+        <v>0.995520467370643</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05981202184892564</v>
+        <v>0.01249039938197359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1102258124377862</v>
+        <v>0.1455586462302075</v>
       </c>
     </row>
     <row r="3">
@@ -2719,22 +3262,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5268341207641564</v>
+        <v>0.5221378969029415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4122302166757144</v>
+        <v>0.4188814083228271</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4030479350426885</v>
+        <v>-0.4031710656296567</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08628245067704639</v>
+        <v>0.08902428061656037</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004405865087477106</v>
+        <v>0.003852272323511079</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01820333886734448</v>
+        <v>0.01813998286660414</v>
       </c>
     </row>
     <row r="4">
@@ -2744,22 +3287,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6626041421615841</v>
+        <v>-0.6740793544992223</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7124655364543752</v>
+        <v>-0.6972728564572281</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.374970302791994</v>
+        <v>-1.377849202970021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2213990923913494</v>
+        <v>0.2139067208177967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004577457031712727</v>
+        <v>0.005589204031025198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002851287338172142</v>
+        <v>0.0002793562234779606</v>
       </c>
     </row>
     <row r="5">
@@ -2769,22 +3312,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1651937150046126</v>
+        <v>0.1670736465804376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2442342225450395</v>
+        <v>0.2485806513039369</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1116574943555519</v>
+        <v>-0.1115340612100088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6125947183650131</v>
+        <v>0.6085886219121565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1191333057234051</v>
+        <v>0.1130861005301597</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5230433030136658</v>
+        <v>0.5237028164322765</v>
       </c>
     </row>
     <row r="6">
@@ -2794,22 +3337,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4480858841876329</v>
+        <v>-0.4312038273142214</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04953312473227108</v>
+        <v>-0.04863358216908295</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.653250075031306</v>
+        <v>-1.654219570830512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5675213009377198</v>
+        <v>0.5820543957927689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9137340213873102</v>
+        <v>0.9156076166857761</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01160737054287363</v>
+        <v>0.01158100361260539</v>
       </c>
     </row>
     <row r="7">
@@ -2819,22 +3362,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1485713317294708</v>
+        <v>-0.1460611660711177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1900640095142025</v>
+        <v>0.1872084488852553</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6043646549772094</v>
+        <v>-0.605021229717868</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7278637087356313</v>
+        <v>0.7322123832745422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2383303826980686</v>
+        <v>0.2457640858032364</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005503185446726746</v>
+        <v>0.005456291543215665</v>
       </c>
     </row>
     <row r="8">
@@ -2844,22 +3387,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.378993037125313</v>
+        <v>-1.396536481808099</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4495900521473258</v>
+        <v>-0.4854399475336564</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1171770404904948</v>
+        <v>-0.1205827225417208</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06811102744393403</v>
+        <v>0.06460567851633615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2361958040380545</v>
+        <v>0.2023052124376976</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7952028779894047</v>
+        <v>0.7892736034278092</v>
       </c>
     </row>
     <row r="9">
@@ -2869,22 +3412,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7865385034329511</v>
+        <v>-0.7942852160904691</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2315488926184921</v>
+        <v>-0.2606884681618665</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1476073490121275</v>
+        <v>-0.1500192549506252</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2504525003205295</v>
+        <v>0.2456541483623648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5232279922673253</v>
+        <v>0.4734527266871907</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7320348470395199</v>
+        <v>0.727742162721253</v>
       </c>
     </row>
     <row r="10">
@@ -2894,22 +3437,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.515313020756089</v>
+        <v>2.514179618653652</v>
       </c>
       <c r="C10" t="n">
-        <v>1.885840970772276</v>
+        <v>1.875927261551833</v>
       </c>
       <c r="D10" t="n">
-        <v>2.150258293449041</v>
+        <v>2.142596034699165</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001045750559421711</v>
+        <v>0.0001045981769468997</v>
       </c>
       <c r="F10" t="n">
-        <v>1.664294751323408e-25</v>
+        <v>3.09778769515583e-25</v>
       </c>
       <c r="G10" t="n">
-        <v>4.342946079396271e-09</v>
+        <v>4.867478407611963e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2919,22 +3462,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.996102856521574</v>
+        <v>2.971324206032425</v>
       </c>
       <c r="C11" t="n">
-        <v>2.353998301807616</v>
+        <v>2.362692477751374</v>
       </c>
       <c r="D11" t="n">
-        <v>2.864434586515483</v>
+        <v>2.853495976585444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001428026283031946</v>
+        <v>0.0001647097483757421</v>
       </c>
       <c r="F11" t="n">
-        <v>3.097216274547944e-16</v>
+        <v>2.606611816099356e-16</v>
       </c>
       <c r="G11" t="n">
-        <v>6.372229624464634e-11</v>
+        <v>7.735109379758757e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2944,22 +3487,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.35011613504834</v>
+        <v>1.345777753638209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.915671872678443</v>
+        <v>0.9178172503200223</v>
       </c>
       <c r="D12" t="n">
-        <v>1.598757210966302</v>
+        <v>1.592027806628921</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05659990336318729</v>
+        <v>0.05736534310122321</v>
       </c>
       <c r="F12" t="n">
-        <v>6.240304103120933e-07</v>
+        <v>6.0189832356129e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.050193804966633e-05</v>
+        <v>2.212456538697748e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2969,22 +3512,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.525775466781729</v>
+        <v>2.524829358400048</v>
       </c>
       <c r="C13" t="n">
-        <v>1.128097747323225</v>
+        <v>1.118056274505147</v>
       </c>
       <c r="D13" t="n">
-        <v>2.106118694917969</v>
+        <v>2.098458870318218</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000105187584077694</v>
+        <v>0.0001059549929478112</v>
       </c>
       <c r="F13" t="n">
-        <v>7.026662170978831e-08</v>
+        <v>9.250446070724703e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>1.412790281873885e-08</v>
+        <v>1.58052894335525e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2994,22 +3537,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.453036471175431</v>
+        <v>1.453532776962307</v>
       </c>
       <c r="C14" t="n">
-        <v>1.116161559179657</v>
+        <v>1.110125726146111</v>
       </c>
       <c r="D14" t="n">
-        <v>2.536391959406332</v>
+        <v>2.527437177024667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08832687006240915</v>
+        <v>0.08818136508595337</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001977432836063666</v>
+        <v>0.0002121809255159833</v>
       </c>
       <c r="G14" t="n">
-        <v>3.400729987046321e-10</v>
+        <v>3.916247879488489e-10</v>
       </c>
     </row>
     <row r="15">
@@ -3019,22 +3562,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2260368904886827</v>
+        <v>-0.2284542004521824</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4366130338916155</v>
+        <v>-0.4363875872646508</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1541518073105201</v>
+        <v>0.1552704240085709</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5897634051381851</v>
+        <v>0.585780993952381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05058828732660401</v>
+        <v>0.05099256988336553</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5042853919567869</v>
+        <v>0.5011515552012122</v>
       </c>
     </row>
     <row r="16">
@@ -3044,22 +3587,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07289137103237091</v>
+        <v>0.05574066080708975</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2896479171834279</v>
+        <v>0.299885707081433</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3980972830089409</v>
+        <v>-0.3928431737419955</v>
       </c>
       <c r="E16" t="n">
-        <v>0.930739567983919</v>
+        <v>0.947013454640683</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3000702301373561</v>
+        <v>0.2828581158408616</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4303645732966778</v>
+        <v>0.4366658882409173</v>
       </c>
     </row>
     <row r="17">
@@ -3069,22 +3612,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-43.98085217327652</v>
+        <v>-58.14357524763466</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5230950586970495</v>
+        <v>-0.4962141876023694</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.775845903204325</v>
+        <v>-0.7590987300722554</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999867984402</v>
+        <v>0.9999999999859922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2829854820158241</v>
+        <v>0.3111961497502358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.193712507423471</v>
+        <v>0.205725327148423</v>
       </c>
     </row>
     <row r="18">
@@ -3094,22 +3637,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.590720444736797</v>
+        <v>-1.58212681358312</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5680860492212473</v>
+        <v>0.572322202941586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1154189059186516</v>
+        <v>0.114865438737281</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004115353502049774</v>
+        <v>0.004354342629682321</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01170798246636335</v>
+        <v>0.01116236474903307</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6779926823544263</v>
+        <v>0.679469244023859</v>
       </c>
     </row>
     <row r="19">
@@ -3119,22 +3662,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2745605874765983</v>
+        <v>0.2897480059283876</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.07791527400322293</v>
+        <v>-0.09673859195618455</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6503625381323381</v>
+        <v>0.6577761794171411</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6468253958939574</v>
+        <v>0.6293587229503723</v>
       </c>
       <c r="F19" t="n">
-        <v>0.809360059461404</v>
+        <v>0.7645433981570721</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06109390310965263</v>
+        <v>0.05822535171799784</v>
       </c>
     </row>
     <row r="20">
@@ -3144,22 +3687,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.004968993536963</v>
+        <v>0.9945312260473845</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6270917958642453</v>
+        <v>0.6047837116347357</v>
       </c>
       <c r="D20" t="n">
-        <v>1.42464196575634</v>
+        <v>1.428832685070042</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2043536025799048</v>
+        <v>0.2084369966792402</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329006000842425</v>
+        <v>0.1471611441444425</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0007669721750907925</v>
+        <v>0.0007377090228683994</v>
       </c>
     </row>
     <row r="21">
@@ -3169,22 +3712,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.586736199003481</v>
+        <v>1.628504140457764</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5375625024905106</v>
+        <v>0.5014179845156705</v>
       </c>
       <c r="D21" t="n">
-        <v>1.339699319770887</v>
+        <v>1.344318212738659</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08677957309665602</v>
+        <v>0.07979563030045053</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4664121510269479</v>
+        <v>0.4978879226352732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.015507271764896</v>
+        <v>0.0154198940537167</v>
       </c>
     </row>
     <row r="22">
@@ -3194,22 +3737,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07424258616567064</v>
+        <v>0.07403662798957751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5412843969366581</v>
+        <v>0.5068807508363989</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3017787870521154</v>
+        <v>0.2960724194242925</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8825356443149569</v>
+        <v>0.8829413116993537</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01787822219163201</v>
+        <v>0.02714362724297524</v>
       </c>
       <c r="G22" t="n">
-        <v>0.294201085812124</v>
+        <v>0.3037328791469986</v>
       </c>
     </row>
     <row r="23">
@@ -3219,22 +3762,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.07807170168017</v>
+        <v>13.76290664557963</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6868600455973906</v>
+        <v>-0.6570271915812603</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2508222606559485</v>
+        <v>-0.2384973908366585</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9908268626743219</v>
+        <v>0.9955308709729117</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3929903349279099</v>
+        <v>0.4162281155863314</v>
       </c>
       <c r="G23" t="n">
-        <v>0.737012734103744</v>
+        <v>0.7495478565390353</v>
       </c>
     </row>
     <row r="24">
@@ -3244,22 +3787,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.685494734139803</v>
+        <v>11.37752948366787</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.603993927376748</v>
+        <v>-2.594771234228712</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.100695067266772</v>
+        <v>-3.089657933300897</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9926439367032939</v>
+        <v>0.9963054512027186</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002098561505519372</v>
+        <v>0.002277943182839669</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001453503011501444</v>
+        <v>0.0001537281635142553</v>
       </c>
     </row>
     <row r="25">
@@ -3269,22 +3812,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.73388298274034</v>
+        <v>16.43503351542348</v>
       </c>
       <c r="C25" t="n">
-        <v>2.417462987845461</v>
+        <v>2.440056593591957</v>
       </c>
       <c r="D25" t="n">
-        <v>2.043464014890502</v>
+        <v>2.048600258791963</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9888099345995033</v>
+        <v>0.9946631829236285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02764930831304079</v>
+        <v>0.0264678903004302</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03111085885884457</v>
+        <v>0.03093855013651312</v>
       </c>
     </row>
     <row r="26">
@@ -3294,22 +3837,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.38060050767636</v>
+        <v>14.0534623051625</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1915552489327501</v>
+        <v>-0.1695450265803844</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1248433024915911</v>
+        <v>-0.1166332872173595</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9905971051779648</v>
+        <v>0.9954365218380163</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8040232026194616</v>
+        <v>0.8270945328466425</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8593111602397573</v>
+        <v>0.8685168692664449</v>
       </c>
     </row>
     <row r="27">
@@ -3319,22 +3862,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.42278834844163</v>
+        <v>14.09174801899031</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5603172670150398</v>
+        <v>-0.5282022114173527</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1825944814877123</v>
+        <v>-0.1711671120668332</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9905650655979101</v>
+        <v>0.9954240897355935</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4703538952848542</v>
+        <v>0.4985697037065884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7966874367862877</v>
+        <v>0.8092092083845126</v>
       </c>
     </row>
     <row r="28">
@@ -3344,22 +3887,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.6092796373779794</v>
+        <v>-0.6039840667855871</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2754007334189348</v>
+        <v>0.2756346797147122</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5192784544103236</v>
+        <v>0.51984501133682</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007022608982603443</v>
+        <v>0.00759532252329455</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007893957281486685</v>
+        <v>0.007899200249143694</v>
       </c>
       <c r="G28" t="n">
-        <v>1.010869701671775e-05</v>
+        <v>9.965241486978772e-06</v>
       </c>
     </row>
     <row r="29">
@@ -3369,22 +3912,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007572960123840696</v>
+        <v>0.00732736947856178</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006897212332815012</v>
+        <v>-0.007377401581679666</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002544294060109653</v>
+        <v>-0.00249845636236806</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4627644857361924</v>
+        <v>0.4772189136734114</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2156063977942323</v>
+        <v>0.1857688585577878</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6691593630465892</v>
+        <v>0.6748593403627932</v>
       </c>
     </row>
     <row r="30">
@@ -3394,22 +3937,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002816042810786867</v>
+        <v>-0.0002797084906959069</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.002028896381848748</v>
+        <v>-0.002036159846793338</v>
       </c>
       <c r="D30" t="n">
-        <v>1.942265947503672e-05</v>
+        <v>1.936711954353506e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>8.126264609129156e-07</v>
+        <v>9.735496268146351e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>2.108173617012945e-163</v>
+        <v>1.697938443035673e-163</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2530095182230809</v>
+        <v>0.2546739051815518</v>
       </c>
     </row>
     <row r="31">
@@ -3419,22 +3962,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.213120049502273</v>
+        <v>-2.204357082955792</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.680139221096447</v>
+        <v>-2.663957954008513</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.296915311179865</v>
+        <v>-3.290311332354642</v>
       </c>
       <c r="E31" t="n">
-        <v>1.020857267762159e-10</v>
+        <v>1.238737477173226e-10</v>
       </c>
       <c r="F31" t="n">
-        <v>1.200597526810201e-35</v>
+        <v>4.254954407234871e-35</v>
       </c>
       <c r="G31" t="n">
-        <v>1.654668032361696e-64</v>
+        <v>2.8829967405298e-64</v>
       </c>
     </row>
     <row r="32">
@@ -3444,22 +3987,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1070699463106104</v>
+        <v>0.110420488841591</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09185649143819385</v>
+        <v>0.08722874786316444</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06730385870556831</v>
+        <v>0.06650105581417066</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2157876182676293</v>
+        <v>0.2029419025774438</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04294347971570933</v>
+        <v>0.05440258044558588</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1744210060521414</v>
+        <v>0.1794831254143461</v>
       </c>
     </row>
     <row r="33">
@@ -3469,22 +4012,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-9.399835851667995e-07</v>
+        <v>-0.0008274564660806341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002329255390349169</v>
+        <v>0.02391811014657447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000141933900036361</v>
+        <v>0.01474622118808686</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9943727820695581</v>
+        <v>0.9502377223362046</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0001556321259005749</v>
+        <v>9.735593401755405e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04031537102854224</v>
+        <v>0.03144679612753095</v>
       </c>
     </row>
     <row r="34">
@@ -3494,22 +4037,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.2262342008707432</v>
+        <v>-0.2154456698354537</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.04513633926300879</v>
+        <v>-0.04561245281645514</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08279617446648466</v>
+        <v>0.08972539297945251</v>
       </c>
       <c r="E34" t="n">
-        <v>0.13128411301378</v>
+        <v>0.1537689758412667</v>
       </c>
       <c r="F34" t="n">
-        <v>0.447031152187614</v>
+        <v>0.443466535843524</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2279990029660554</v>
+        <v>0.1917101854313785</v>
       </c>
     </row>
     <row r="35">
@@ -3519,22 +4062,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.2251887401490547</v>
+        <v>-0.1902427633492914</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04461381052170741</v>
+        <v>-0.002148456928330828</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1315513155039992</v>
+        <v>-0.137357030065472</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04777138183829514</v>
+        <v>0.1505591203619669</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2778787378029866</v>
+        <v>0.9628026881503695</v>
       </c>
       <c r="G35" t="n">
-        <v>0.008127917955589399</v>
+        <v>0.01093227955535554</v>
       </c>
     </row>
     <row r="36">
@@ -3544,147 +4087,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.645307599366651e-08</v>
+        <v>0.05559475213691504</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.864417100103668e-07</v>
+        <v>-0.1713353079304429</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.26870463092774e-08</v>
+        <v>-0.005703788244389236</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7272950470252674</v>
+        <v>0.6790002640008549</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003518798027807711</v>
+        <v>0.007930689756529285</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8625593830658206</v>
+        <v>0.9384114965758562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.008831232867507944</v>
+        <v>0.005472040804060933</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01460316169104748</v>
+        <v>-0.009217576214432701</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005266063680487987</v>
+        <v>6.027073550941438e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5264814540160347</v>
+        <v>0.6407870692168498</v>
       </c>
       <c r="F37" t="n">
-        <v>0.006254870183113923</v>
+        <v>0.07248915470002658</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3222905784840461</v>
+        <v>0.9991758101400023</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.36321745112889</v>
+        <v>-0.00479957450314366</v>
       </c>
       <c r="C38" t="n">
-        <v>2.742736314259593</v>
+        <v>0.01026911963687344</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.775163830442563</v>
+        <v>0.005162230362208183</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001346248898272381</v>
+        <v>0.7629395794401185</v>
       </c>
       <c r="F38" t="n">
-        <v>0.133684325377669</v>
+        <v>0.07742223050099908</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1994105644149566</v>
+        <v>0.3805918431722595</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08646195545750583</v>
+        <v>0.1323868566258969</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.472949672493467</v>
+        <v>0.02942500602348575</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.008115591929533</v>
+        <v>-0.02764682949039482</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9341029998232546</v>
+        <v>0.001594920556811309</v>
       </c>
       <c r="F39" t="n">
-        <v>2.51012105876625e-07</v>
+        <v>0.1105923955085425</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06109777790312143</v>
+        <v>0.2043301938120813</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.881575026667683</v>
+        <v>-0.0007492390719989858</v>
       </c>
       <c r="C40" t="n">
-        <v>1.620341801939595</v>
+        <v>-0.02137403099222784</v>
       </c>
       <c r="D40" t="n">
-        <v>1.020839016779884</v>
+        <v>-0.009754855726801896</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2387944414037518</v>
+        <v>0.9484689778199465</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03123694132606289</v>
+        <v>3.678339761382078e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2274096876082187</v>
+        <v>0.09582264115372768</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.02072555983413295</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01885120548316537</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0106307056131696</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2008382404196375</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01295989191680283</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2163798266465373</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>-0.0005237724532576659</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.000451267293961916</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.489879691127438e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1802285760563735</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.01068969669386745</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.9400277519619256</v>
+      <c r="B42" t="n">
+        <v>-0.03213399623897817</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02613282185889432</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.002081871305397151</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1952025901354101</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01657352825274154</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.8650629651752139</v>
       </c>
     </row>
   </sheetData>
@@ -3698,7 +4266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3750,22 +4318,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.259200802286587</v>
+        <v>-20.6985247328995</v>
       </c>
       <c r="C2" t="n">
-        <v>1.80693151250693</v>
+        <v>2.71258808191611</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.198412093898829</v>
+        <v>-2.127519903348692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.982488735902755</v>
+        <v>0.9998683270981815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1064543125732554</v>
+        <v>0.02687002990170936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0619116970145332</v>
+        <v>0.09823292442555802</v>
       </c>
     </row>
     <row r="3">
@@ -3775,22 +4343,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3975294665555651</v>
+        <v>0.3964464384101534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3669115048397943</v>
+        <v>0.3741312977206387</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3030245331376455</v>
+        <v>-0.301894879833961</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2173976010169085</v>
+        <v>0.2186762633334669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009461134944620298</v>
+        <v>0.008214913533754399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07854921652196523</v>
+        <v>0.07964342094943919</v>
       </c>
     </row>
     <row r="4">
@@ -3800,22 +4368,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4859484226572671</v>
+        <v>-0.4921944884549996</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7244569735067895</v>
+        <v>-0.7146961627641188</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.552918158087961</v>
+        <v>-1.555881627792</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3714334596509973</v>
+        <v>0.365602450287587</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003410300270068517</v>
+        <v>0.003910884349857019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001665603818481672</v>
+        <v>0.000163334467094407</v>
       </c>
     </row>
     <row r="5">
@@ -3825,22 +4393,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1768984476966816</v>
+        <v>0.180777124937852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1687183743453603</v>
+        <v>0.166749442822102</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1105387955541964</v>
+        <v>-0.1111495621529193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5785419099140129</v>
+        <v>0.5703585349126158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.276908614813506</v>
+        <v>0.2829535075020961</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5301288185505253</v>
+        <v>0.5283596576438927</v>
       </c>
     </row>
     <row r="6">
@@ -3850,22 +4418,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.047270415493279</v>
+        <v>-1.031918770072038</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1540335542175552</v>
+        <v>-0.1564588046887819</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.29344111484098</v>
+        <v>-1.293749430908751</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3194494300950698</v>
+        <v>0.3265552510096529</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7563861811267916</v>
+        <v>0.7536583123849717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0321804174528755</v>
+        <v>0.03210910849158403</v>
       </c>
     </row>
     <row r="7">
@@ -3875,22 +4443,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2898868673751818</v>
+        <v>-0.2866598708639633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06756007140525085</v>
+        <v>0.06549612308964564</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4944669510652058</v>
+        <v>-0.4958205517349697</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5098886060179001</v>
+        <v>0.5147179520214185</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6641800952225343</v>
+        <v>0.6740271016726693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0210735014215681</v>
+        <v>0.02073548399058589</v>
       </c>
     </row>
     <row r="8">
@@ -3900,22 +4468,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8508807014536015</v>
+        <v>-0.8693376738404919</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2341364487600481</v>
+        <v>-0.2554229889997774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7940613380985083</v>
+        <v>0.7804639202635723</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3191498911455253</v>
+        <v>0.3089371521748148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5313682318318026</v>
+        <v>0.4959133424384832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1540175464184629</v>
+        <v>0.1608516140017682</v>
       </c>
     </row>
     <row r="9">
@@ -3925,22 +4493,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3162098809359856</v>
+        <v>-0.3258717682777719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04489129478731913</v>
+        <v>0.02836700812351176</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7269677127658933</v>
+        <v>0.7143531158972118</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6888126122492652</v>
+        <v>0.6798577716368315</v>
       </c>
       <c r="F9" t="n">
-        <v>0.900352366693538</v>
+        <v>0.9370951115173608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1795665507586137</v>
+        <v>0.1868502908189216</v>
       </c>
     </row>
     <row r="10">
@@ -3950,22 +4518,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.244002990905219</v>
+        <v>2.243198682191418</v>
       </c>
       <c r="C10" t="n">
-        <v>2.053452385714924</v>
+        <v>2.047784348910538</v>
       </c>
       <c r="D10" t="n">
-        <v>2.039353982799094</v>
+        <v>2.032378877389737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001327649446427134</v>
+        <v>0.0001325661723301607</v>
       </c>
       <c r="F10" t="n">
-        <v>8.086418002099669e-31</v>
+        <v>1.299365167990591e-30</v>
       </c>
       <c r="G10" t="n">
-        <v>2.689332646920886e-09</v>
+        <v>3.027329817868646e-09</v>
       </c>
     </row>
     <row r="11">
@@ -3975,22 +4543,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.640167672807292</v>
+        <v>2.616042639013123</v>
       </c>
       <c r="C11" t="n">
-        <v>2.138240767201417</v>
+        <v>2.152225963642713</v>
       </c>
       <c r="D11" t="n">
-        <v>2.745613476694706</v>
+        <v>2.738948706191648</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006792144502938657</v>
+        <v>0.0007639317409129585</v>
       </c>
       <c r="F11" t="n">
-        <v>7.526945069247837e-14</v>
+        <v>5.478156077113517e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>7.058068548477591e-11</v>
+        <v>8.000122427778143e-11</v>
       </c>
     </row>
     <row r="12">
@@ -4000,22 +4568,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9975498098942033</v>
+        <v>0.9937352538488843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.891135452979447</v>
+        <v>0.8933484266996186</v>
       </c>
       <c r="D12" t="n">
-        <v>1.514534391942991</v>
+        <v>1.506756790312177</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1327114044446893</v>
+        <v>0.1341974977179121</v>
       </c>
       <c r="F12" t="n">
-        <v>6.967001297172039e-07</v>
+        <v>6.704969092282923e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>1.474405065037756e-05</v>
+        <v>1.63201947357107e-05</v>
       </c>
     </row>
     <row r="13">
@@ -4025,22 +4593,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.268826092904462</v>
+        <v>2.272526113190607</v>
       </c>
       <c r="C13" t="n">
-        <v>1.171462798823003</v>
+        <v>1.163397682424604</v>
       </c>
       <c r="D13" t="n">
-        <v>1.903581616931522</v>
+        <v>1.895539859696713</v>
       </c>
       <c r="E13" t="n">
-        <v>8.107967979023695e-05</v>
+        <v>7.90301605831968e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>8.045892522339018e-09</v>
+        <v>1.023387461055913e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>3.696211020546203e-08</v>
+        <v>4.18727813660169e-08</v>
       </c>
     </row>
     <row r="14">
@@ -4050,22 +4618,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9171844552998907</v>
+        <v>0.9183189803639803</v>
       </c>
       <c r="C14" t="n">
-        <v>1.006337842056978</v>
+        <v>1.000873183734889</v>
       </c>
       <c r="D14" t="n">
-        <v>2.488566866759705</v>
+        <v>2.480754709834175</v>
       </c>
       <c r="E14" t="n">
-        <v>0.311201891358832</v>
+        <v>0.3106062029591098</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0006149988906779274</v>
+        <v>0.0006477418173590842</v>
       </c>
       <c r="G14" t="n">
-        <v>6.682828447083764e-11</v>
+        <v>7.717719403390747e-11</v>
       </c>
     </row>
     <row r="15">
@@ -4075,22 +4643,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2316276564859691</v>
+        <v>0.2299446679056798</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.128280234212587</v>
+        <v>-0.1205844175217566</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3514911586229172</v>
+        <v>0.3526509634025676</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5314633603970899</v>
+        <v>0.5345394059229032</v>
       </c>
       <c r="F15" t="n">
-        <v>0.537271739637899</v>
+        <v>0.5624407703014331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1086706343276637</v>
+        <v>0.1076036301933326</v>
       </c>
     </row>
     <row r="16">
@@ -4100,22 +4668,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2925941232481031</v>
+        <v>-0.3099178856208668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4543899666286094</v>
+        <v>0.4820334595851201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05482547585561861</v>
+        <v>0.05876580136858808</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7893475762116524</v>
+        <v>0.7773261710276279</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1053655339630836</v>
+        <v>0.08640091928912375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9087273558285278</v>
+        <v>0.9022886476478982</v>
       </c>
     </row>
     <row r="17">
@@ -4125,22 +4693,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.817515616342</v>
+        <v>-39.07017154967147</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7552919189129735</v>
+        <v>-0.76010718165391</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.745443201879428</v>
+        <v>-0.7417259883109459</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990517913304248</v>
+        <v>0.9999998811215343</v>
       </c>
       <c r="F17" t="n">
-        <v>0.173876917404623</v>
+        <v>0.1748808152040722</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2255629789572731</v>
+        <v>0.2301020917691403</v>
       </c>
     </row>
     <row r="18">
@@ -4150,22 +4718,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.430628379225482</v>
+        <v>-1.419082076552465</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4765911717095899</v>
+        <v>0.4845998885774188</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1826301294257366</v>
+        <v>-0.1838390346394867</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01033964834612798</v>
+        <v>0.01099317096615448</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0298498015352453</v>
+        <v>0.02734935440111857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5067179905566208</v>
+        <v>0.5039015657139001</v>
       </c>
     </row>
     <row r="19">
@@ -4175,22 +4743,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2099779787345731</v>
+        <v>0.2251322821404549</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2084445074175567</v>
+        <v>0.1939644259879879</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8087469974910872</v>
+        <v>0.8147618136370368</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7515531253453338</v>
+        <v>0.7345185589074765</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5239385575855692</v>
+        <v>0.5530756207169814</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01946393847008655</v>
+        <v>0.01860167734608667</v>
       </c>
     </row>
     <row r="20">
@@ -4200,22 +4768,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6027529880175438</v>
+        <v>0.5971030599659409</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5667668008351091</v>
+        <v>0.5431591134555579</v>
       </c>
       <c r="D20" t="n">
-        <v>1.20314256431308</v>
+        <v>1.20627706166328</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4847968616235202</v>
+        <v>0.487650040150734</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1685363614347464</v>
+        <v>0.1865022083156741</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004860039642969596</v>
+        <v>0.004744119651706021</v>
       </c>
     </row>
     <row r="21">
@@ -4225,22 +4793,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.258708015694555</v>
+        <v>1.304820062288695</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9497222703684908</v>
+        <v>0.9180298531989408</v>
       </c>
       <c r="D21" t="n">
-        <v>0.591639474517525</v>
+        <v>0.5876450794033918</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1688975092383058</v>
+        <v>0.1552192431938086</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1985716588223888</v>
+        <v>0.2125415554506069</v>
       </c>
       <c r="G21" t="n">
-        <v>0.299177521756826</v>
+        <v>0.3038545240648914</v>
       </c>
     </row>
     <row r="22">
@@ -4250,22 +4818,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1102165849161803</v>
+        <v>-0.1046244959917564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5038805248657078</v>
+        <v>0.4712489311839186</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3289040013860001</v>
+        <v>0.3214711226275835</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8429873938537931</v>
+        <v>0.8510995383068058</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02494375188159404</v>
+        <v>0.03667330129948279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2318059816299038</v>
+        <v>0.2430523029882162</v>
       </c>
     </row>
     <row r="23">
@@ -4275,22 +4843,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.987017918775708</v>
+        <v>21.60031559191808</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4931415118570462</v>
+        <v>-0.4621737858705607</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4196073365044682</v>
+        <v>-0.4086424292383634</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9788259203688509</v>
+        <v>0.9998625903889176</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5505569168413514</v>
+        <v>0.5775271512530755</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5637043368375358</v>
+        <v>0.5739882279852162</v>
       </c>
     </row>
     <row r="24">
@@ -4300,22 +4868,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.807409492851582</v>
+        <v>19.42804411002166</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.269660696937037</v>
+        <v>-2.25175130713184</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.04319663538244</v>
+        <v>-3.032728529030037</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9834463024230476</v>
+        <v>0.9998764092137272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008657432452141364</v>
+        <v>0.009470547247144558</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001263920513217102</v>
+        <v>0.0001334240576563198</v>
       </c>
     </row>
     <row r="25">
@@ -4325,22 +4893,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.89231455816386</v>
+        <v>24.51073265103251</v>
       </c>
       <c r="C25" t="n">
-        <v>2.546587441316467</v>
+        <v>2.567860521856128</v>
       </c>
       <c r="D25" t="n">
-        <v>1.286073715429017</v>
+        <v>1.283679779201496</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9726684687783583</v>
+        <v>0.9998440758783506</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0270228771185018</v>
+        <v>0.02564701344759517</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2024516380700399</v>
+        <v>0.2039686271793535</v>
       </c>
     </row>
     <row r="26">
@@ -4350,22 +4918,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.25148700926963</v>
+        <v>21.85475971211571</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1459176093191222</v>
+        <v>-0.1181466772720626</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.456246148339003</v>
+        <v>-0.4470163905738674</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9782653104565152</v>
+        <v>0.9998609717520446</v>
       </c>
       <c r="F26" t="n">
-        <v>0.854241032563961</v>
+        <v>0.8823149926180999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5041757473587555</v>
+        <v>0.5129444997543067</v>
       </c>
     </row>
     <row r="27">
@@ -4375,22 +4943,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.33973118122046</v>
+        <v>21.93846966591551</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3856680182606101</v>
+        <v>-0.3482866632456308</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5321249947284169</v>
+        <v>-0.5183786753300081</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9780782670284118</v>
+        <v>0.999860439234266</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6287980682494123</v>
+        <v>0.6639723122895334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4386928134698924</v>
+        <v>0.4506921898951436</v>
       </c>
     </row>
     <row r="28">
@@ -4400,22 +4968,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.6548606740950196</v>
+        <v>-0.6493855625080979</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1169496634031179</v>
+        <v>0.1138649271051174</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5458105024931299</v>
+        <v>0.5457373613442308</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004441712801547773</v>
+        <v>0.004813452001116865</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2471358860468739</v>
+        <v>0.2602889552435994</v>
       </c>
       <c r="G28" t="n">
-        <v>4.51708070543236e-06</v>
+        <v>4.618364655969758e-06</v>
       </c>
     </row>
     <row r="29">
@@ -4425,22 +4993,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003960582843492147</v>
+        <v>0.003724563747296479</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.005983873562790447</v>
+        <v>-0.006496274562456076</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0007927005563954522</v>
+        <v>-0.0007437788800935072</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7081304210215824</v>
+        <v>0.724465912415031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2764583093258183</v>
+        <v>0.237897713570259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8929177899236791</v>
+        <v>0.899491708550455</v>
       </c>
     </row>
     <row r="30">
@@ -4450,22 +5018,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002646132432709513</v>
+        <v>-0.000262708019201002</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001909448772134952</v>
+        <v>-0.001914473967231032</v>
       </c>
       <c r="D30" t="n">
-        <v>2.452200466840832e-05</v>
+        <v>2.434517187509683e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>2.685386805460896e-06</v>
+        <v>3.191655032490763e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>9.906956455357333e-166</v>
+        <v>5.815976274324875e-166</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1538054045630302</v>
+        <v>0.1571323525825714</v>
       </c>
     </row>
     <row r="31">
@@ -4475,22 +5043,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.059122114063324</v>
+        <v>-2.053380706521031</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.728090957786243</v>
+        <v>-2.712207560224296</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.227894683445479</v>
+        <v>-3.222078022470668</v>
       </c>
       <c r="E31" t="n">
-        <v>4.98704078042486e-08</v>
+        <v>5.669193769676919e-08</v>
       </c>
       <c r="F31" t="n">
-        <v>1.554080682983253e-37</v>
+        <v>5.969388987120041e-37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.492540318498419e-63</v>
+        <v>2.682114127477427e-63</v>
       </c>
     </row>
     <row r="32">
@@ -4500,22 +5068,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.122926113908413</v>
+        <v>0.1264048293177223</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07564771672560826</v>
+        <v>0.07126738810984605</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04219155305948649</v>
+        <v>0.04119970618892116</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1724867820257205</v>
+        <v>0.1622021164566082</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09919248822147683</v>
+        <v>0.1202287719848864</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4071551171005918</v>
+        <v>0.4183066433761515</v>
       </c>
     </row>
     <row r="33">
@@ -4525,22 +5093,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.369436860454862e-05</v>
+        <v>-0.001826163072611405</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002193308799370268</v>
+        <v>0.02243158580634039</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000160728960228939</v>
+        <v>0.01656385748629699</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9173262701244604</v>
+        <v>0.8895791581123217</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0002331682493664465</v>
+        <v>0.0001600126710511031</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02182176387403007</v>
+        <v>0.01698680083074483</v>
       </c>
     </row>
     <row r="34">
@@ -4550,22 +5118,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.2024802074546026</v>
+        <v>-0.1918171298927729</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01579867348604507</v>
+        <v>-0.01397189951386016</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08224142613585624</v>
+        <v>0.08877556819904991</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1678028924818756</v>
+        <v>0.1949629806057961</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7840099907441552</v>
+        <v>0.8089508868171774</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2338233375265594</v>
+        <v>0.1991927036469637</v>
       </c>
     </row>
     <row r="35">
@@ -4575,22 +5143,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.2118115385978178</v>
+        <v>-0.1738370536125542</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03688860309026522</v>
+        <v>-0.006999626217670377</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1536724123739087</v>
+        <v>-0.1622956584430542</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0554842583132088</v>
+        <v>0.1760000828591264</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3522218115582444</v>
+        <v>0.875761493179597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002293238644057882</v>
+        <v>0.002909990490371267</v>
       </c>
     </row>
     <row r="36">
@@ -4600,147 +5168,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6.725859066369554e-09</v>
+        <v>-0.002436309559706014</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.156806065633906e-07</v>
+        <v>-0.1004993052275692</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.329482841535196e-08</v>
+        <v>-0.02522561939740363</v>
       </c>
       <c r="E36" t="n">
-        <v>0.960251753004064</v>
+        <v>0.9857086327952169</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06338624446020476</v>
+        <v>0.1103306733244195</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6508140008850134</v>
+        <v>0.7336215336781438</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.01672370720824795</v>
+        <v>0.006197957109517302</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01518391995054161</v>
+        <v>-0.008877146836603804</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004738836929925934</v>
+        <v>-0.0007684239916719946</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2201510463799595</v>
+        <v>0.603992282816407</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003236989645180854</v>
+        <v>0.08099925584203854</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3717287682444761</v>
+        <v>0.8957709279436642</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.31793869191037</v>
+        <v>-0.01224483132778948</v>
       </c>
       <c r="C38" t="n">
-        <v>1.424377342785974</v>
+        <v>0.01076997902309648</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.314775137159487</v>
+        <v>0.00430555575052799</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003375701969371207</v>
+        <v>0.4353667618997078</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4253976905722566</v>
+        <v>0.05822727972108959</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2889825250586516</v>
+        <v>0.4597012080638372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.5895717540841344</v>
+        <v>0.1211372793510287</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.939746634981883</v>
+        <v>0.01645559502472217</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.091311628243759</v>
+        <v>-0.02267411016973785</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5702500296294599</v>
+        <v>0.00406155430651475</v>
       </c>
       <c r="F39" t="n">
-        <v>2.33219482845987e-05</v>
+        <v>0.3605184190044758</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04414589497511359</v>
+        <v>0.3021641746130661</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.393641607481829</v>
+        <v>-0.008174122252800764</v>
       </c>
       <c r="C40" t="n">
-        <v>1.691031489554687</v>
+        <v>-0.01603258390994374</v>
       </c>
       <c r="D40" t="n">
-        <v>1.316871805878103</v>
+        <v>-0.01028348722201423</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1488068882921036</v>
+        <v>0.4818994310621875</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01966562239914255</v>
+        <v>0.001324887435857204</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1185252595886603</v>
+        <v>0.0802264487259831</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.02583554241993966</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01943030086302383</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01366052715411123</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1236764408711887</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.008087476052780096</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1109914429774323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>-0.0004287112114817152</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0002468031233132085</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-8.333714526516969e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.2713176009192618</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1475900790408468</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.6731413626246152</v>
+      <c r="B42" t="n">
+        <v>-0.02599142500545732</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01374751712347792</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.007884886785167827</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2912252238187324</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1906081580887669</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5189438082916188</v>
       </c>
     </row>
   </sheetData>
@@ -4754,7 +5347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,12 +5398,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-18.96484837684349</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.488878482116976</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.404921878489874</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9994890014530303</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04185852455950676</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.009312276970405094</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4818,12 +5423,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.4534435727556909</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3844878822361702</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3463350939789449</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1637054744770302</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006583203843527442</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04152150428256339</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4831,12 +5448,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-1.173504700277359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.606814300350763</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.385707774063947</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08725810501393648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01734683008255969</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003679339148592985</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4844,12 +5473,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.101264909294209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2528249428819778</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.09564722147747073</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7700929183324509</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1055375413784101</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.585641468493634</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4857,12 +5498,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-0.3096012971876382</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.008542507092822013</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.728596738320501</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.694862604069248</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9856090162042347</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.009401250127804083</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4870,12 +5523,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.01932852019401911</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.188703914834163</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5190041361348171</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9636389805970795</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2324463863676556</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01471590974016031</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4883,12 +5548,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-1.306058184601602</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.512650439631402</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2141978234121172</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07986613549967271</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1448160952059245</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.617786676839557</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4896,12 +5573,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-0.6865310999155546</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.163287204887401</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1029729417401486</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3083326311325498</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6260299676322667</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8021850492385483</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4909,12 +5598,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.225117309669477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.754447905037922</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.395776095242462</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0001796403305804181</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.322738453302006e-23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.230261167009064e-10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4922,12 +5623,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.760788719765493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.091882407934785</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.090358243963991</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002784706683201366</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.520420431387992e-13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.157639469950292e-11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4935,12 +5648,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.262378887973423</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7908700995090654</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.825961688186111</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05272067694388628</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.153618377752334e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.519805824458425e-06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4948,12 +5673,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2.407308926642755</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.181827347642091</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.28319556376543</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.161322045693444e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.86600057431231e-09</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.72042587562401e-09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4961,12 +5698,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.342520654820182</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.116299749641537</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.764124655672569</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.09631280837086846</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001947384340126206</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.707273820994463e-11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4974,12 +5723,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-0.09037493372827902</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.3433346878236397</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3111272596769821</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8308122870862747</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1114948279752234</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1626646608351878</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4987,12 +5748,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0.6018734612196643</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3269481964437579</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.1952700435463054</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4631622082592893</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2370618245946707</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.704764797848228</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5000,12 +5773,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-18.95693916641217</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5411665333487586</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.246150318985212</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9987710579543212</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2683076559234416</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.06942561952076459</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5013,12 +5798,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>-1.431117090233504</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6332313037872669</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07922045493927578</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0185068977508642</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.004887096211466407</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7733580821191375</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5026,12 +5823,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.5176821579316607</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04785891726279297</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6455869112100704</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4158888797083101</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8836198404555365</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06426556595209937</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5039,12 +5848,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0.8314573094203822</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7604374432383897</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.118768788202217</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3237431025186908</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06386468183798102</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.008006863186635831</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5052,12 +5873,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1.170554322170813</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6746097839699222</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8775664678792606</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2022597031559912</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2998119258176677</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.08821776419361568</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5065,12 +5898,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.272567030980644</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4651510931453888</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3829997340688024</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5936121166144839</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.04006436369944936</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1654155607576273</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5078,12 +5923,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>18.29450148202888</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3140028064439803</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1739124488674491</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.999507063617622</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7023365106453396</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8354483931454539</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5091,12 +5948,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>16.06386228655747</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.074070510649922</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.269967191959915</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.999567167092016</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01606884424308575</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01116202152980273</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5104,12 +5973,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>-11.11292888223518</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.274559335483463</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.257690159861558</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9999990868186955</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.03937845034273303</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02968753302375762</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5117,12 +5998,24 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>18.60546694675091</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09112917865834545</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2843273938675944</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9994986848064702</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9085084610793221</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7230164158647485</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5130,12 +6023,24 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>18.70837469885221</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.190321367286943</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2085440522213436</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9994959120078595</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8110925633685058</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7957465617131465</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5143,12 +6048,24 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-0.5925129806149273</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2544093794782229</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4974120866955685</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01170743400703439</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01240874454273073</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.026407252093141e-05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5156,12 +6073,24 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.002350038996761928</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.005634237301821174</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.001100033356412304</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8312015002899189</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3046087432186415</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8531948627505599</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5169,12 +6098,24 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>-0.0002680992604173509</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001937687604302305</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.773567696267949e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.171783332483471e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.759426182302496e-167</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2973360737272942</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5182,12 +6123,24 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>-2.167711926056509</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.602800738716525</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.138130526078359</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.469228836663669e-10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.757118790609108e-35</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.35046281096241e-61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5195,12 +6148,24 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.1448441659644085</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02381964133761135</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07452342299464897</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.09683422567069058</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5943960123181504</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1312092383217812</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5208,12 +6173,24 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0.0003052986689798885</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02226701052973168</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01301279441566</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9826873099652319</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001811103123446768</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05751286138280565</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5221,12 +6198,24 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>-0.2829237264439123</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.01133244613070952</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1006848379922559</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.07732540171926829</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8466657455735255</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1369443945351796</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5234,12 +6223,24 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>-0.09868122366013451</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.003317610522380279</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.08168836750522104</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4779458116641022</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9429500584123049</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1193404162481266</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5247,77 +6248,174 @@
           <t>UrbBuildDensity_res</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>-0.01184998998544079</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.1330462638350173</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.007977766781650894</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9311184820294705</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.03714795035382495</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9138980348633287</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01207316935442084</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.008202439476108899</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.006205827662810747</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3368118322195833</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1095155908936452</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.280543739324676</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.003697852033183914</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.009972092467324426</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.005609922477562731</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8338273920597108</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.08058462477218997</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3303860979051776</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1407788900614692</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0323789213426775</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.01444354639199465</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.001289605543457992</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.07399031121629052</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.4989391633801826</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.006253002176330057</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.01641573024394411</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.01069506764181078</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6150062126745011</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.001009885930180589</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.06942315871333997</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.01686662717951022</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01851381799594529</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.00905881948765775</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3089518388412237</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01253993122481974</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2917997437592913</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>-0.02303182552931852</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01849805794816814</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.005840343632707143</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3578618185554421</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.09125601725765735</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6422835268420755</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5330,7 +6428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5833,7 +6931,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -5846,7 +6944,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -5859,7 +6957,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -5872,7 +6970,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -5885,7 +6983,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>transit_accessibility_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -5894,6 +6992,19 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5906,7 +7017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5958,22 +7069,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.423989648021051</v>
+        <v>-11.49146410173655</v>
       </c>
       <c r="C2" t="n">
-        <v>1.94720194132554</v>
+        <v>3.297403889543297</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.582083763424403</v>
+        <v>-3.058553009310802</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9870326203939188</v>
+        <v>0.9931844836338498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09308143612871955</v>
+        <v>0.009926696641863769</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0250516413413441</v>
+        <v>0.01487515885538692</v>
       </c>
     </row>
     <row r="3">
@@ -5983,22 +7094,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2342904561213755</v>
+        <v>0.2292312631221352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4028026965681942</v>
+        <v>0.4145957272828696</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2288719971781427</v>
+        <v>-0.2285524635502853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4985431601608443</v>
+        <v>0.5076055832516534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004943453455265779</v>
+        <v>0.003910844765986532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1780347562227272</v>
+        <v>0.1783056778276128</v>
       </c>
     </row>
     <row r="4">
@@ -6008,22 +7119,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5597387550165299</v>
+        <v>-0.565989128340418</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.577731643921104</v>
+        <v>-0.5652828675593604</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.689826084468185</v>
+        <v>-1.700865653651661</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3163517757758215</v>
+        <v>0.3110725229693797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02279109185022995</v>
+        <v>0.02599062857447737</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001701024413832749</v>
+        <v>0.000157159766744189</v>
       </c>
     </row>
     <row r="5">
@@ -6033,22 +7144,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2265964172820415</v>
+        <v>0.233509934767535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3882263120067964</v>
+        <v>0.3898921253083215</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09941313666625262</v>
+        <v>-0.09529075154174435</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4904461826495558</v>
+        <v>0.4774697635845548</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01407853969147559</v>
+        <v>0.01388638285354881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5728793870237909</v>
+        <v>0.5891425681878104</v>
       </c>
     </row>
     <row r="6">
@@ -6058,22 +7169,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5145962005070452</v>
+        <v>-0.4858049611763398</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.08905773366898585</v>
+        <v>-0.08317944861180637</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.667973487288827</v>
+        <v>-1.675557101650949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5152687878878894</v>
+        <v>0.5384971639284606</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8445848109247367</v>
+        <v>0.8552825830388073</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01193999843638389</v>
+        <v>0.01157266199367805</v>
       </c>
     </row>
     <row r="7">
@@ -6083,22 +7194,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3801466394236486</v>
+        <v>-0.3715374926463266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1593032350186921</v>
+        <v>0.1573313053408107</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3655763279935407</v>
+        <v>-0.3661131278155818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4086803883499297</v>
+        <v>0.4195272506287268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3088140390913489</v>
+        <v>0.3157212096825404</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08546363038464647</v>
+        <v>0.08505817282373926</v>
       </c>
     </row>
     <row r="8">
@@ -6108,22 +7219,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7648180004258509</v>
+        <v>-0.7972866285886684</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2350022409716416</v>
+        <v>-0.267998403419455</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2181548543950421</v>
+        <v>0.2120320956916906</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3905544366330642</v>
+        <v>0.3711535942988433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5129235900031395</v>
+        <v>0.4566134019335314</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6307260443479941</v>
+        <v>0.6399346693085938</v>
       </c>
     </row>
     <row r="9">
@@ -6133,22 +7244,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.05616058324642236</v>
+        <v>-0.07549309400896963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02669354553306895</v>
+        <v>-0.0008600537691885267</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1408691644304021</v>
+        <v>0.1401611919372111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9452261151520132</v>
+        <v>0.9264705484665801</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9378716551264648</v>
+        <v>0.9980003550646395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7465992964628756</v>
+        <v>0.7474994008100782</v>
       </c>
     </row>
     <row r="10">
@@ -6158,22 +7269,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.195897389047286</v>
+        <v>2.188911222472859</v>
       </c>
       <c r="C10" t="n">
-        <v>1.912310195257599</v>
+        <v>1.899574889945292</v>
       </c>
       <c r="D10" t="n">
-        <v>1.925414193170487</v>
+        <v>1.921035988391044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002676412366814422</v>
+        <v>0.0002753658602838887</v>
       </c>
       <c r="F10" t="n">
-        <v>4.513481954638177e-27</v>
+        <v>1.025245493661623e-26</v>
       </c>
       <c r="G10" t="n">
-        <v>1.781520873672565e-08</v>
+        <v>1.897655546721989e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6183,22 +7294,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.800380372886969</v>
+        <v>2.762463385642324</v>
       </c>
       <c r="C11" t="n">
-        <v>2.447664407293096</v>
+        <v>2.464640599427533</v>
       </c>
       <c r="D11" t="n">
-        <v>2.848624231281967</v>
+        <v>2.828624825677914</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003713492546214043</v>
+        <v>0.0004537188311765826</v>
       </c>
       <c r="F11" t="n">
-        <v>2.094252836665179e-17</v>
+        <v>1.516869787650538e-17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.460337407191568e-11</v>
+        <v>2.098031460640395e-11</v>
       </c>
     </row>
     <row r="12">
@@ -6208,22 +7319,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9572031476876371</v>
+        <v>0.94518237077214</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9191186104666068</v>
+        <v>0.9166409826018379</v>
       </c>
       <c r="D12" t="n">
-        <v>1.443702468204184</v>
+        <v>1.44092994432599</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1618947960529219</v>
+        <v>0.167225495813345</v>
       </c>
       <c r="F12" t="n">
-        <v>3.444974690984824e-07</v>
+        <v>3.881828694233217e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>3.491598648556164e-05</v>
+        <v>3.623277559682196e-05</v>
       </c>
     </row>
     <row r="13">
@@ -6233,22 +7344,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.171571002050463</v>
+        <v>2.165768482458018</v>
       </c>
       <c r="C13" t="n">
-        <v>1.239780442063322</v>
+        <v>1.230314030930406</v>
       </c>
       <c r="D13" t="n">
-        <v>2.115289001330432</v>
+        <v>2.109343543473816</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002285260986893246</v>
+        <v>0.0002347671794256024</v>
       </c>
       <c r="F13" t="n">
-        <v>2.290889111123088e-09</v>
+        <v>3.119368382618817e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>1.650978481873945e-09</v>
+        <v>1.799015395222231e-09</v>
       </c>
     </row>
     <row r="14">
@@ -6258,22 +7369,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9678036511236185</v>
+        <v>0.9649129963634282</v>
       </c>
       <c r="C14" t="n">
-        <v>1.007317235566336</v>
+        <v>0.9981056632930628</v>
       </c>
       <c r="D14" t="n">
-        <v>2.277282038624028</v>
+        <v>2.272349644218401</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2887668357775459</v>
+        <v>0.2902091996964683</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0007804120845695716</v>
+        <v>0.0008658962655352545</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93428141365494e-09</v>
+        <v>2.098356871622983e-09</v>
       </c>
     </row>
     <row r="15">
@@ -6283,22 +7394,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1587367979029045</v>
+        <v>0.1550355010091066</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2161290850701341</v>
+        <v>-0.2132028907927551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1936729567361589</v>
+        <v>0.194745754549213</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6821153088707419</v>
+        <v>0.6891474304103923</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3030407865463248</v>
+        <v>0.3104470962112412</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3979259208235149</v>
+        <v>0.3948512399362289</v>
       </c>
     </row>
     <row r="16">
@@ -6308,22 +7419,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2485782214026329</v>
+        <v>0.2038380179306248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3190095686572135</v>
+        <v>0.3202111581283973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2030458446089755</v>
+        <v>0.1884450823433842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7742918200931377</v>
+        <v>0.8144762984436046</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2676703940977916</v>
+        <v>0.2680386322552862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6673297600946506</v>
+        <v>0.6904984768624125</v>
       </c>
     </row>
     <row r="17">
@@ -6333,22 +7444,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-28.76929595695351</v>
+        <v>-10.25028921510212</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.469417744628646</v>
+        <v>-0.4436587678887549</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1240189045840928</v>
+        <v>0.1705562784191597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999864926457204</v>
+        <v>0.9522172037548641</v>
       </c>
       <c r="F17" t="n">
-        <v>0.329307007361049</v>
+        <v>0.3593000870087902</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8306628472346551</v>
+        <v>0.7688833446099087</v>
       </c>
     </row>
     <row r="18">
@@ -6358,22 +7469,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.923522713199055</v>
+        <v>-1.901451791195165</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6048019087374099</v>
+        <v>0.6048704238992527</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1669493454937869</v>
+        <v>0.1751094848999371</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002344812622196218</v>
+        <v>0.002665901025345382</v>
       </c>
       <c r="F18" t="n">
-        <v>0.007131304866147124</v>
+        <v>0.00719233985047107</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5500729722492639</v>
+        <v>0.5313770981041608</v>
       </c>
     </row>
     <row r="19">
@@ -6383,22 +7494,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1328367183341745</v>
+        <v>-0.1242093849012787</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1379477295556807</v>
+        <v>-0.1484304056267313</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7327741075841567</v>
+        <v>0.7337314479881175</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8436119921562276</v>
+        <v>0.853917274408782</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6692136450427819</v>
+        <v>0.6460098477018873</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03951208931629539</v>
+        <v>0.03930586858929924</v>
       </c>
     </row>
     <row r="20">
@@ -6408,22 +7519,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7932268142799956</v>
+        <v>0.7775564171022532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6648420813181699</v>
+        <v>0.6436668731982947</v>
       </c>
       <c r="D20" t="n">
-        <v>1.419800912856089</v>
+        <v>1.421677570048939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.352563031988651</v>
+        <v>0.3611503332188271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1048208477591075</v>
+        <v>0.1158246576093274</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0009621121015663833</v>
+        <v>0.000932340074180304</v>
       </c>
     </row>
     <row r="21">
@@ -6433,22 +7544,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9134679345625832</v>
+        <v>0.9818405304430249</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5281539912483986</v>
+        <v>0.5032047262400927</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8743490405413764</v>
+        <v>0.9070233676749063</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3226047816536161</v>
+        <v>0.2893241590880459</v>
       </c>
       <c r="F21" t="n">
-        <v>0.425779705175607</v>
+        <v>0.4477148142224017</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1034897790570583</v>
+        <v>0.09168126385050415</v>
       </c>
     </row>
     <row r="22">
@@ -6458,22 +7569,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.4547592331464385</v>
+        <v>-0.4554394944753703</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5954704722004269</v>
+        <v>0.5539884477685262</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3300201127456714</v>
+        <v>0.3302638389325753</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4577588956108154</v>
+        <v>0.4570872658917873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007328308521367019</v>
+        <v>0.0129860360426967</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2600199792742515</v>
+        <v>0.2599634643308166</v>
       </c>
     </row>
     <row r="23">
@@ -6483,22 +7594,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.54707139346667</v>
+        <v>12.47052388730432</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.837809769995237</v>
+        <v>-0.7908247687830999</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1025866764030206</v>
+        <v>-0.07159016491057228</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9837647489069195</v>
+        <v>0.9926038120047306</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3333210883982616</v>
+        <v>0.3635504033058167</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8930119657809447</v>
+        <v>0.9254445266076377</v>
       </c>
     </row>
     <row r="24">
@@ -6508,22 +7619,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.131410441850853</v>
+        <v>10.06260767808638</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.747220333103417</v>
+        <v>-2.721786156097911</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.516508426405612</v>
+        <v>-2.488833781245994</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9874828671036814</v>
+        <v>0.9940319025095963</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002350761543949218</v>
+        <v>0.00269842203311285</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002255360936636001</v>
+        <v>0.002586327214990143</v>
       </c>
     </row>
     <row r="25">
@@ -6533,22 +7644,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.46488806923271</v>
+        <v>15.46591235164965</v>
       </c>
       <c r="C25" t="n">
-        <v>1.64157026704777</v>
+        <v>1.639591845206188</v>
       </c>
       <c r="D25" t="n">
-        <v>1.831170151277729</v>
+        <v>1.915921887003214</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9792742586026427</v>
+        <v>0.9908273398402729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1614859582133606</v>
+        <v>0.163471394146969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05489128381048456</v>
+        <v>0.04575728600382342</v>
       </c>
     </row>
     <row r="26">
@@ -6558,22 +7669,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.98393941651926</v>
+        <v>12.87985722141033</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2921377047006364</v>
+        <v>-0.2397367607753381</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06771486022908407</v>
+        <v>0.08834929494368683</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9830923594368127</v>
+        <v>0.9923610455809315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7263685296154176</v>
+        <v>0.775162746768404</v>
       </c>
       <c r="G26" t="n">
-        <v>0.925469942073187</v>
+        <v>0.9031881026685499</v>
       </c>
     </row>
     <row r="27">
@@ -6583,22 +7694,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.06218060728925</v>
+        <v>12.95666572330176</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.4984390306233315</v>
+        <v>-0.4399563133835962</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02516628582069065</v>
+        <v>0.03961604410191168</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9829719406199332</v>
+        <v>0.9923154924031126</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5520648380603754</v>
+        <v>0.6016417983191794</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9724128607987795</v>
+        <v>0.9567297525766817</v>
       </c>
     </row>
     <row r="28">
@@ -6608,22 +7719,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.7275131412677136</v>
+        <v>-0.7156976302177719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1901196722027581</v>
+        <v>0.1898809173295243</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4388101050035603</v>
+        <v>0.4429900606913161</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002504781441145755</v>
+        <v>0.002971217456901298</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06325627193916189</v>
+        <v>0.06402556232879421</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0001707012468923983</v>
+        <v>0.0001495049650830744</v>
       </c>
     </row>
     <row r="29">
@@ -6633,22 +7744,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.006664263555661007</v>
+        <v>0.006126973417995726</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006598803030992262</v>
+        <v>-0.006892440253862237</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002193759534096788</v>
+        <v>0.00188416659425848</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5447447925734057</v>
+        <v>0.5779308857754507</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2378875396481008</v>
+        <v>0.2178469546185292</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7137023126368166</v>
+        <v>0.7529849207133077</v>
       </c>
     </row>
     <row r="30">
@@ -6658,22 +7769,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0003108249676322848</v>
+        <v>-0.00030717861223986</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001953328162232413</v>
+        <v>-0.001962784561100048</v>
       </c>
       <c r="D30" t="n">
-        <v>1.740789348725675e-05</v>
+        <v>1.775366153735354e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>3.081070175520031e-07</v>
+        <v>4.265003257983065e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>1.704603743854603e-163</v>
+        <v>6.124081034017788e-164</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3055116416952133</v>
+        <v>0.2960966261512614</v>
       </c>
     </row>
     <row r="31">
@@ -6683,22 +7794,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.506628975481197</v>
+        <v>-2.498905118104767</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.672614934220983</v>
+        <v>-2.648956376715659</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.189018218967353</v>
+        <v>-3.18705345497738</v>
       </c>
       <c r="E31" t="n">
-        <v>5.684706013205018e-13</v>
+        <v>7.316062216510023e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>5.77890837645512e-37</v>
+        <v>4.181201766709335e-36</v>
       </c>
       <c r="G31" t="n">
-        <v>1.083616575931794e-62</v>
+        <v>1.305338276747407e-62</v>
       </c>
     </row>
     <row r="32">
@@ -6708,22 +7819,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06173215733865677</v>
+        <v>0.06513795913640651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06792611427254776</v>
+        <v>0.06348532778958982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06516050824495878</v>
+        <v>0.06426906356982877</v>
       </c>
       <c r="E32" t="n">
-        <v>0.508537909147351</v>
+        <v>0.4868181899861368</v>
       </c>
       <c r="F32" t="n">
-        <v>0.132300159416927</v>
+        <v>0.1591871758963698</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1886553092781328</v>
+        <v>0.1947101699479592</v>
       </c>
     </row>
     <row r="33">
@@ -6733,22 +7844,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-7.309194170284315e-05</v>
+        <v>-0.007367477239861112</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002249221161306784</v>
+        <v>0.02315856551383507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001460527483334823</v>
+        <v>0.01508343038240932</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6197102362296936</v>
+        <v>0.6164413751633786</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0002024274393935623</v>
+        <v>0.0001284838096537533</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03497608067254065</v>
+        <v>0.02836562779465499</v>
       </c>
     </row>
     <row r="34">
@@ -6758,22 +7869,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1988848559583752</v>
+        <v>-0.1802523921681894</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0181462750433185</v>
+        <v>-0.02132474811922236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1198512071892808</v>
+        <v>0.131490520339699</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2193054789695996</v>
+        <v>0.2718029094125258</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7567622828926756</v>
+        <v>0.7173702828561914</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07757154688196143</v>
+        <v>0.05408160209853585</v>
       </c>
     </row>
     <row r="35">
@@ -6783,22 +7894,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1486561438464138</v>
+        <v>-0.09104031442142525</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04008922418938857</v>
+        <v>-0.02537186228797604</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1130796228841081</v>
+        <v>-0.09846062943223538</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2128136868899128</v>
+        <v>0.5152910233126131</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3321832865765008</v>
+        <v>0.5908693758207846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02140429570774442</v>
+        <v>0.06342231957312261</v>
       </c>
     </row>
     <row r="36">
@@ -6808,147 +7919,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.256873901902182e-09</v>
+        <v>0.001656061699825655</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.490888631378471e-07</v>
+        <v>-0.1265275516456069</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.501986662705756e-08</v>
+        <v>-0.04241059177107477</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9818077210318289</v>
+        <v>0.9908019079202121</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01864493675987473</v>
+        <v>0.0483562256019989</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5357572675758978</v>
+        <v>0.5624001083819478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.0224089608853693</v>
+        <v>0.009186776266958364</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01279689240459492</v>
+        <v>-0.01251134546205587</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003218310114274103</v>
+        <v>0.005414759977063633</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1630934436256061</v>
+        <v>0.4758164646848121</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01897100283669963</v>
+        <v>0.01579600889420943</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5415456434147795</v>
+        <v>0.3443542211387013</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.2055948067186</v>
+        <v>-0.01614584218334425</v>
       </c>
       <c r="C38" t="n">
-        <v>3.645500498427948</v>
+        <v>0.005831095468728609</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.631053318453568</v>
+        <v>0.005375277860297426</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0003400666732641521</v>
+        <v>0.3628648845362914</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04520971227515898</v>
+        <v>0.3383310896660059</v>
       </c>
       <c r="G38" t="n">
-        <v>0.449435109528711</v>
+        <v>0.3529569078400091</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.8433506026841751</v>
+        <v>0.1581893378235235</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.799887323393308</v>
+        <v>0.04018051959275485</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.8964846121022504</v>
+        <v>-0.01808907262144156</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4605227127176725</v>
+        <v>0.0004725690525719847</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0001083999960869625</v>
+        <v>0.02840545097684765</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09498553693971765</v>
+        <v>0.403920010225899</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.291355537630106</v>
+        <v>-0.01262373567553396</v>
       </c>
       <c r="C40" t="n">
-        <v>1.628431556306825</v>
+        <v>-0.01335127117388666</v>
       </c>
       <c r="D40" t="n">
-        <v>1.322256584158468</v>
+        <v>-0.01089167417070245</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1842172363862382</v>
+        <v>0.3360128561843944</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02931564962903578</v>
+        <v>0.008024747043134267</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1131985040228472</v>
+        <v>0.06517713117108012</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.02534928949282055</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01944399470919018</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01193055184471502</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1485116553104473</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01003962349326478</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1607476249294371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>-0.000197948201140711</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0002263792941738581</v>
-      </c>
-      <c r="D41" t="n">
-        <v>5.847409533424493e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.6075140810777147</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1969435696530388</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.7636977059332171</v>
+      <c r="B42" t="n">
+        <v>-0.01122388266794729</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01144525718835288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-8.556174199466596e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6457275569683631</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2907867452716303</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9943464669519163</v>
       </c>
     </row>
   </sheetData>
@@ -6962,7 +8098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7014,22 +8150,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-7.926973843254192</v>
+        <v>-8.671861388492154</v>
       </c>
       <c r="C2" t="n">
-        <v>1.614685135890328</v>
+        <v>2.541763740207494</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.727156805917955</v>
+        <v>-3.311501898663147</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9405740534049221</v>
+        <v>0.9289661588208988</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15196156406683</v>
+        <v>0.03989465169667368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01808116161568572</v>
+        <v>0.008523927752039133</v>
       </c>
     </row>
     <row r="3">
@@ -7039,22 +8175,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3343457046043857</v>
+        <v>0.3339000879649927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3617370765871531</v>
+        <v>0.3725600337070721</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4609374718666245</v>
+        <v>-0.4594707214271634</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2898227852941062</v>
+        <v>0.2906299470033066</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01192793622569701</v>
+        <v>0.009748208598967672</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006222161881442038</v>
+        <v>0.006354487725398135</v>
       </c>
     </row>
     <row r="4">
@@ -7064,22 +8200,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5862730132823371</v>
+        <v>-0.593330377197525</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7169834246260827</v>
+        <v>-0.7043993482818521</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.371234476630739</v>
+        <v>-1.381915703240911</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2791025968946467</v>
+        <v>0.2733356665114884</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003684622645221783</v>
+        <v>0.004375396086329148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002702533087993737</v>
+        <v>0.0002453894981654092</v>
       </c>
     </row>
     <row r="5">
@@ -7089,22 +8225,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1631488326049099</v>
+        <v>0.1685336887680442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2966449314973307</v>
+        <v>0.3009081212841251</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05231534646418336</v>
+        <v>-0.04638519754368269</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6267732194478477</v>
+        <v>0.6155178718406418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05832829302971129</v>
+        <v>0.05521387030638245</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7630811893913354</v>
+        <v>0.7894122188984413</v>
       </c>
     </row>
     <row r="6">
@@ -7114,22 +8250,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2851219842254361</v>
+        <v>-0.2735646371851334</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04422039130347064</v>
+        <v>-0.03270907545384428</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.361469297303864</v>
+        <v>-1.368247776958535</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7144518262167356</v>
+        <v>0.7254932732333232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9235536118684466</v>
+        <v>0.94363922045207</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0218435643481868</v>
+        <v>0.02123167906115062</v>
       </c>
     </row>
     <row r="7">
@@ -7139,22 +8275,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09982195101735031</v>
+        <v>-0.09243705562995938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1071754253928459</v>
+        <v>0.1052681486320534</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7403404201295732</v>
+        <v>-0.7381108781621473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8090443983323219</v>
+        <v>0.8230237304995761</v>
       </c>
       <c r="F7" t="n">
-        <v>0.49781464428598</v>
+        <v>0.5058128220713654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006906310924182541</v>
+        <v>0.0007152949090911931</v>
       </c>
     </row>
     <row r="8">
@@ -7164,22 +8300,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.939045454396453</v>
+        <v>-0.9514664902092461</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01721133055588777</v>
+        <v>-0.04998820470247614</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5308206891230459</v>
+        <v>0.5368983378618153</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2868559021548013</v>
+        <v>0.2804743591390498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9630449716720306</v>
+        <v>0.8932223056371134</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2471047662842594</v>
+        <v>0.2412773975520087</v>
       </c>
     </row>
     <row r="9">
@@ -7189,22 +8325,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02911143590434284</v>
+        <v>0.02627096618272606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1742834126239559</v>
+        <v>0.1492104237331616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3527639870388666</v>
+        <v>0.3656935498180591</v>
       </c>
       <c r="E9" t="n">
-        <v>0.970820871434788</v>
+        <v>0.9736670032997771</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6233285236598805</v>
+        <v>0.6747188423695614</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4236550811814739</v>
+        <v>0.406468944744522</v>
       </c>
     </row>
     <row r="10">
@@ -7214,22 +8350,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.579315442058907</v>
+        <v>2.576664194482951</v>
       </c>
       <c r="C10" t="n">
-        <v>1.843560547197673</v>
+        <v>1.833972021935566</v>
       </c>
       <c r="D10" t="n">
-        <v>2.327902119330271</v>
+        <v>2.324679360131447</v>
       </c>
       <c r="E10" t="n">
-        <v>7.33110030072499e-05</v>
+        <v>7.404719063289452e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>2.401617897882305e-25</v>
+        <v>4.658730483980756e-25</v>
       </c>
       <c r="G10" t="n">
-        <v>6.434918360702884e-10</v>
+        <v>6.754622905080035e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7239,22 +8375,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.118841593302264</v>
+        <v>3.095413330592016</v>
       </c>
       <c r="C11" t="n">
-        <v>2.24887595793669</v>
+        <v>2.262496301795167</v>
       </c>
       <c r="D11" t="n">
-        <v>3.203971770968622</v>
+        <v>3.189088927166004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001283544558549306</v>
+        <v>0.000146053749324352</v>
       </c>
       <c r="F11" t="n">
-        <v>4.806845350735447e-15</v>
+        <v>3.759211393097292e-15</v>
       </c>
       <c r="G11" t="n">
-        <v>1.736392008738564e-12</v>
+        <v>2.333241103643922e-12</v>
       </c>
     </row>
     <row r="12">
@@ -7264,22 +8400,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.334979432937627</v>
+        <v>1.33208742838396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8490803535775291</v>
+        <v>0.8515465867128077</v>
       </c>
       <c r="D12" t="n">
-        <v>1.879752177623875</v>
+        <v>1.878119515955964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06440623430071081</v>
+        <v>0.06494841198432991</v>
       </c>
       <c r="F12" t="n">
-        <v>2.275079403620127e-06</v>
+        <v>2.178210616592164e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>9.099504282393507e-07</v>
+        <v>9.273626361701421e-07</v>
       </c>
     </row>
     <row r="13">
@@ -7289,22 +8425,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.671409497296449</v>
+        <v>2.674267973859978</v>
       </c>
       <c r="C13" t="n">
-        <v>1.225462589350098</v>
+        <v>1.218908454201041</v>
       </c>
       <c r="D13" t="n">
-        <v>2.251973148674925</v>
+        <v>2.248588190026448</v>
       </c>
       <c r="E13" t="n">
-        <v>4.168997926711116e-05</v>
+        <v>4.102619327782953e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>2.696819209568833e-09</v>
+        <v>3.324496836072836e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>3.536261554979897e-09</v>
+        <v>3.677523843558335e-09</v>
       </c>
     </row>
     <row r="14">
@@ -7314,22 +8450,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.69766660513785</v>
+        <v>1.698079098404044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9902832320703934</v>
+        <v>0.9821627505408577</v>
       </c>
       <c r="D14" t="n">
-        <v>2.808233267353877</v>
+        <v>2.80730694156312</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0470346337081896</v>
+        <v>0.04699480541034206</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0007704681367746042</v>
+        <v>0.0008346504766123913</v>
       </c>
       <c r="G14" t="n">
-        <v>6.226799416728041e-12</v>
+        <v>6.31344051398567e-12</v>
       </c>
     </row>
     <row r="15">
@@ -7339,22 +8475,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1451938260120081</v>
+        <v>0.1388536212998172</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2317744585678722</v>
+        <v>-0.2276143644599151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29089920469459</v>
+        <v>0.2931064039689654</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6941924260044909</v>
+        <v>0.7069997926809939</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2656494196273932</v>
+        <v>0.2745367185143464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1888914836031865</v>
+        <v>0.1851543487073091</v>
       </c>
     </row>
     <row r="16">
@@ -7364,22 +8500,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.234540336090555</v>
+        <v>0.2069453116698567</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09432217078531019</v>
+        <v>0.1124036441590272</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01542334134337854</v>
+        <v>-0.03058660894606857</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7778679491685685</v>
+        <v>0.8038290799981587</v>
       </c>
       <c r="F16" t="n">
-        <v>0.735575658317705</v>
+        <v>0.687818208187423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9735862623928059</v>
+        <v>0.9476149143679237</v>
       </c>
     </row>
     <row r="17">
@@ -7389,22 +8525,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.32489220640145</v>
+        <v>-24.25922779336984</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1139772278353213</v>
+        <v>-0.08661562722770413</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5981524777828806</v>
+        <v>-0.5608774819273965</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9849543534263268</v>
+        <v>0.9998870099018216</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8296722028979576</v>
+        <v>0.8703592662436068</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3282481583933011</v>
+        <v>0.3586718526931344</v>
       </c>
     </row>
     <row r="18">
@@ -7414,22 +8550,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.259408689810061</v>
+        <v>-1.246712740788984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.551151003557913</v>
+        <v>0.5514574101339064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2479333203891666</v>
+        <v>0.2555003286513164</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02468203719240612</v>
+        <v>0.02630347822996416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0128742404606158</v>
+        <v>0.01293120174065652</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3673937823602274</v>
+        <v>0.3533409444239234</v>
       </c>
     </row>
     <row r="19">
@@ -7439,22 +8575,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5260680671650589</v>
+        <v>0.5401285880367862</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2280106024590116</v>
+        <v>0.2209683863095568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5728791617564868</v>
+        <v>0.576973484745223</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3768970286295094</v>
+        <v>0.3652816281932636</v>
       </c>
       <c r="F19" t="n">
-        <v>0.476788005143545</v>
+        <v>0.4907924031582447</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09910803973202124</v>
+        <v>0.09701970231159165</v>
       </c>
     </row>
     <row r="20">
@@ -7464,22 +8600,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.137030471623138</v>
+        <v>1.149341022777493</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5943611367753743</v>
+        <v>0.5711606458289621</v>
       </c>
       <c r="D20" t="n">
-        <v>1.139305170812752</v>
+        <v>1.146150369640332</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1814802762884475</v>
+        <v>0.1772718910692795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1635911669238067</v>
+        <v>0.1807845870601527</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007285036342651808</v>
+        <v>0.006900814157316255</v>
       </c>
     </row>
     <row r="21">
@@ -7489,22 +8625,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-38.02662317812617</v>
+        <v>-20.02149379579676</v>
       </c>
       <c r="C21" t="n">
-        <v>1.324431149135274</v>
+        <v>1.300334488031981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8513726611150895</v>
+        <v>0.8878742750440606</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999998630037378</v>
+        <v>0.9994298923415875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06488359787333971</v>
+        <v>0.06911130930786208</v>
       </c>
       <c r="G21" t="n">
-        <v>0.10175881551714</v>
+        <v>0.08863040929471454</v>
       </c>
     </row>
     <row r="22">
@@ -7514,22 +8650,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1086345233800339</v>
+        <v>0.1152342368902749</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7187152203199232</v>
+        <v>0.6907103788312765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3992183491499382</v>
+        <v>0.3993739508979645</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8362549082504313</v>
+        <v>0.8265687655001072</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001409561795007489</v>
+        <v>0.002232838542848454</v>
       </c>
       <c r="G22" t="n">
-        <v>0.153814815136501</v>
+        <v>0.1537897149700242</v>
       </c>
     </row>
     <row r="23">
@@ -7539,22 +8675,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.9602713686777</v>
+        <v>6.744735896448</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8879599636715417</v>
+        <v>-0.8753894936178881</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1473300918650136</v>
+        <v>-0.1235411235310628</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9478016428392113</v>
+        <v>0.9447065726726831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2915762326442902</v>
+        <v>0.3012106342585729</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8441543931418508</v>
+        <v>0.869198134267647</v>
       </c>
     </row>
     <row r="24">
@@ -7564,22 +8700,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.413689600908685</v>
+        <v>4.200689790673021</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.717047627914713</v>
+        <v>-2.723890451086188</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.148934536632374</v>
+        <v>-3.135166923945748</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9668860366914442</v>
+        <v>0.9655464337203591</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002102843739734695</v>
+        <v>0.00216224646022384</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001370641335022467</v>
+        <v>0.0001485057541613704</v>
       </c>
     </row>
     <row r="25">
@@ -7589,22 +8725,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.36377156111754</v>
+        <v>10.2175902071592</v>
       </c>
       <c r="C25" t="n">
-        <v>2.7270651004124</v>
+        <v>2.75549432762806</v>
       </c>
       <c r="D25" t="n">
-        <v>1.959139460513957</v>
+        <v>2.051575391738197</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9223482659309516</v>
+        <v>0.9163274467378744</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02900176466180564</v>
+        <v>0.02732603029244805</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04765856119528446</v>
+        <v>0.03870827061482428</v>
       </c>
     </row>
     <row r="26">
@@ -7614,22 +8750,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.617701215818935</v>
+        <v>7.406960385809869</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6444779354284387</v>
+        <v>-0.6405441529189466</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.05605656532836303</v>
+        <v>-0.03410983528862602</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9428782091197921</v>
+        <v>0.9392862259172132</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4245177534053128</v>
+        <v>0.4301867875770957</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9369683762506454</v>
+        <v>0.9616666036207833</v>
       </c>
     </row>
     <row r="27">
@@ -7639,22 +8775,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.789845556045282</v>
+        <v>7.570585309902761</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9152146686751282</v>
+        <v>-0.9004031332322158</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09376997388776827</v>
+        <v>-0.08177208830581492</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9415896326615542</v>
+        <v>0.9379476709283008</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2590175677828261</v>
+        <v>0.2697596961699222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8952524676181519</v>
+        <v>0.9086986288994028</v>
       </c>
     </row>
     <row r="28">
@@ -7664,22 +8800,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.4852357723625408</v>
+        <v>-0.4759415935239263</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2143444378206248</v>
+        <v>0.2125285916462331</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5076893141358084</v>
+        <v>0.5109684931916562</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03078369759492616</v>
+        <v>0.03426295861965602</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03540956980714067</v>
+        <v>0.03722489513784592</v>
       </c>
       <c r="G28" t="n">
-        <v>1.379144264883968e-05</v>
+        <v>1.225798719348804e-05</v>
       </c>
     </row>
     <row r="29">
@@ -7689,22 +8825,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005069335681676729</v>
+        <v>0.004834342982358708</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0022372707514071</v>
+        <v>-0.002607025242869006</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004064950286845206</v>
+        <v>-0.004305947547165119</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6295215547666818</v>
+        <v>0.6452026091060967</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6829042690686439</v>
+        <v>0.6343968919448828</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4897035573629938</v>
+        <v>0.4644113027883818</v>
       </c>
     </row>
     <row r="30">
@@ -7714,22 +8850,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002623459714771771</v>
+        <v>-0.0002601774862565107</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001933038365822722</v>
+        <v>-0.001939421534251206</v>
       </c>
       <c r="D30" t="n">
-        <v>1.118424848198465e-05</v>
+        <v>1.159400020985925e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>2.434130617550579e-06</v>
+        <v>3.001414593727961e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>7.082192594293613e-168</v>
+        <v>5.610355402756425e-168</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5104992601859635</v>
+        <v>0.495300432639012</v>
       </c>
     </row>
     <row r="31">
@@ -7739,22 +8875,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.124590197310959</v>
+        <v>-2.121680683759239</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.697479839481858</v>
+        <v>-2.686596420333758</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.25607566501987</v>
+        <v>-3.25815998696616</v>
       </c>
       <c r="E31" t="n">
-        <v>1.808084620499987e-09</v>
+        <v>1.985376211606778e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>6.670731244232804e-36</v>
+        <v>2.026320235319508e-35</v>
       </c>
       <c r="G31" t="n">
-        <v>1.435209923922168e-63</v>
+        <v>1.479669760478219e-63</v>
       </c>
     </row>
     <row r="32">
@@ -7764,22 +8900,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1578678116091298</v>
+        <v>0.1618215082663396</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07658795151837354</v>
+        <v>0.07263708606376217</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07467767774668899</v>
+        <v>0.07457074354919133</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06494875981515269</v>
+        <v>0.05938145170531201</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08888099376377891</v>
+        <v>0.1064343486597576</v>
       </c>
       <c r="G32" t="n">
-        <v>0.130156614182985</v>
+        <v>0.13077733965389</v>
       </c>
     </row>
     <row r="33">
@@ -7789,22 +8925,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.484516540869798e-05</v>
+        <v>-0.003416563725737757</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002479485614102806</v>
+        <v>0.02534410976891343</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001327407701558724</v>
+        <v>0.01357449320022014</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8554267611229762</v>
+        <v>0.8017168261322717</v>
       </c>
       <c r="F33" t="n">
-        <v>3.41163606832132e-05</v>
+        <v>2.125990068108288e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05256736598509205</v>
+        <v>0.04575550094364526</v>
       </c>
     </row>
     <row r="34">
@@ -7814,22 +8950,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.2652075587398308</v>
+        <v>-0.2586077645647359</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003956716551128109</v>
+        <v>0.002947212344646022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1164944075765955</v>
+        <v>0.1257565746023406</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08539380032138659</v>
+        <v>0.09534964370607428</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9455889741079639</v>
+        <v>0.9595611621541826</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08462180682406338</v>
+        <v>0.06406181224005915</v>
       </c>
     </row>
     <row r="35">
@@ -7839,22 +8975,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.231293113619706</v>
+        <v>-0.1873862897373063</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05930662384291802</v>
+        <v>0.01453881075953804</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1328783012896924</v>
+        <v>-0.1134814811768043</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05143887838674407</v>
+        <v>0.1714586148482953</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1407744529002536</v>
+        <v>0.7495108589245354</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00714678320761012</v>
+        <v>0.03365079260004867</v>
       </c>
     </row>
     <row r="36">
@@ -7864,147 +9000,172 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.686011116716864e-08</v>
+        <v>0.04012880403754096</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.826772768371694e-07</v>
+        <v>-0.1686974478091209</v>
       </c>
       <c r="D36" t="n">
-        <v>2.22354750151936e-08</v>
+        <v>0.0233649695020237</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7816580379695622</v>
+        <v>0.7640397110451265</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00370572698378856</v>
+        <v>0.007997966758022484</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7599062944492946</v>
+        <v>0.749693605861028</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.007245061665091204</v>
+        <v>0.007124537955500051</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01440327818792315</v>
+        <v>-0.008563812634610875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005465349192142113</v>
+        <v>0.006400371395864459</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6197257099266534</v>
+        <v>0.5500651346916003</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005945012341968731</v>
+        <v>0.09258280676805333</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2937037124837307</v>
+        <v>0.2675816454750752</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11.9928201240935</v>
+        <v>-0.001946350812062038</v>
       </c>
       <c r="C38" t="n">
-        <v>1.92847377555451</v>
+        <v>0.01016269220881826</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.734110678798796</v>
+        <v>0.008088363924658603</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004633035907211563</v>
+        <v>0.9066810969717887</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2853780015982799</v>
+        <v>0.07608698520416914</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2018318842910983</v>
+        <v>0.1578519405878669</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01696066818544392</v>
+        <v>0.1174578963169061</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.898262640724514</v>
+        <v>0.02178921822998956</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6928754120618416</v>
+        <v>-0.02863019960491055</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9870936331101967</v>
+        <v>0.00575323683542544</v>
       </c>
       <c r="F39" t="n">
-        <v>3.525697285326015e-05</v>
+        <v>0.2309032445004137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1889059416817919</v>
+        <v>0.1838535668697818</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.524101482529248</v>
+        <v>-0.002342359859785013</v>
       </c>
       <c r="C40" t="n">
-        <v>2.368346997663291</v>
+        <v>-0.01578508542244305</v>
       </c>
       <c r="D40" t="n">
-        <v>1.185557692920622</v>
+        <v>-0.008989838034058905</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3395224941876339</v>
+        <v>0.8414541657646932</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00126794531626376</v>
+        <v>0.001569890852088764</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1539884342574531</v>
+        <v>0.1211669639469279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.01778829882187759</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02606288158138095</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01010615460281859</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2748362362659021</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0004520490395637568</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2340545323654286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>-0.0003377353782776925</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.0003348865387941653</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-5.664307960934079e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3634306347988372</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.05126379402731934</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.7730639394072838</v>
+      <c r="B42" t="n">
+        <v>-0.01932087615371985</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01885878899726378</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.007215692943873511</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4123857326292905</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0747662836210795</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.555070306604817</v>
       </c>
     </row>
   </sheetData>
